--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -554,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t>subject-unknown | withheld | unable-to-obtain | deferred</t>
+    <t>subject-unknown | withheld | unable-to-obtain | deferred (対象家族を知らない | 情報の提供を拒否 | 聞き出すことができない | 後日情報を提供できる)</t>
   </si>
   <si>
     <t>Describes why the family member's history is not available. 1)subject-unknown：患者が対象の家族のことを知らない（例：患者は養子のため実親を知らない）, 2)withheld：患者が家族歴の共有を拒否, 3)unable-to-obtain：患者から聞き取れない（例：患者が意識不明）, 4)deferred：患者は今は知らないが、後日共有するつもりである。</t>
@@ -662,7 +662,7 @@
     <t>male | female | other | unknown（男性｜女性｜その他｜不明）</t>
   </si>
   <si>
-    <t>The birth sex of the family member.（＊リスクアセスメント目的のためバイオロジカルな性別が良いだろう）</t>
+    <t>The birth sex of the family member.（*Extensibleなのでこのまま列挙して必要に応じて追加するもあり）</t>
   </si>
   <si>
     <t>This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
@@ -1270,7 +1270,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -1261,39 +1261,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.2109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="94.61328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="49.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -261,8 +261,8 @@
     <t>..</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}fhs-1:年齢[x]または生まれ[x]を持つことができますが、両方ではありません / Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:年齢[x]が存在する場合にのみ推定される可能性があります / Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -287,13 +287,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -306,16 +306,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -326,13 +326,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -345,19 +345,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -377,13 +377,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -403,13 +403,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -429,33 +429,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>FamilyMemberHistory.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -474,7 +475,7 @@
     <t>Business identifiers assigned to this family member history by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+    <t>This is a business identifier, not a resource identifier (see [discussion](resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
   </si>
   <si>
     <t>Allows identification of the family member history as it is known by various participating systems and in a way that remains consistent across servers.</t>
@@ -496,7 +497,7 @@
 </t>
   </si>
   <si>
-    <t>Instantiates FHIR protocol or definition</t>
+    <t>FHIRプロトコルまたは定義をインスタンス化します / Instantiates FHIR protocol or definition</t>
   </si>
   <si>
     <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory. （よくわからない）</t>
@@ -511,13 +512,13 @@
     <t>FamilyMemberHistory.instantiatesUri</t>
   </si>
   <si>
-    <t>Instantiates external protocol or definition</t>
+    <t>外部プロトコルまたは定義をインスタンス化します / Instantiates external protocol or definition</t>
   </si>
   <si>
     <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.（よくわからない）</t>
   </si>
   <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+    <t>これは、HTMLページ、PDFなどである可能性があるか、単に解決できないURI識別子である可能性があります。 / This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
   </si>
   <si>
     <t>Event.instantiatesUri</t>
@@ -532,7 +533,7 @@
     <t>A code specifying the status of the record of the family history of a specific family member. 家族歴の記録のステータス。記録が部分的なものか完全なものかなど。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
@@ -563,7 +564,7 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>This is a separate element to allow it to have a distinct binding from reasonCode.</t>
+    <t>これは、ReasonCodeから明確なバインディングを可能にするための別の要素です。 / This is a separate element to allow it to have a distinct binding from reasonCode.</t>
   </si>
   <si>
     <t>example</t>
@@ -586,7 +587,7 @@
 </t>
   </si>
   <si>
-    <t>Patient history is about</t>
+    <t>患者の歴史はについてです / Patient history is about</t>
   </si>
   <si>
     <t>The person who this history concerns. 患者リソース（JP_Patient）への参照。</t>
@@ -608,16 +609,16 @@
 </t>
   </si>
   <si>
-    <t>When history was recorded or last updated</t>
+    <t>履歴が記録されたとき、または最後に更新されたとき / When history was recorded or last updated</t>
   </si>
   <si>
     <t>The date (and possibly time) when the family member history was recorded or last updated. この家族歴の最終更新日。</t>
   </si>
   <si>
-    <t>This should be captured even if the same as the date on the List aggregating the full family history.</t>
-  </si>
-  <si>
-    <t>Allows determination of how current the summary is.</t>
+    <t>これは、完全な家族歴を集約するリストの日付と同じであってもキャプチャする必要があります。 / This should be captured even if the same as the date on the List aggregating the full family history.</t>
+  </si>
+  <si>
+    <t>概要がどのように電流であるかを判断できます。 / Allows determination of how current the summary is.</t>
   </si>
   <si>
     <t>participation[typeCode=AUT].time</t>
@@ -629,13 +630,13 @@
     <t>FamilyMemberHistory.name</t>
   </si>
   <si>
-    <t>The family member described</t>
+    <t>家族が説明した / The family member described</t>
   </si>
   <si>
     <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair". 対象の家族の呼び名。例えば「スーザンおばさん」、「赤毛のいとこ」。</t>
   </si>
   <si>
-    <t>Allows greater ease in ensuring the same person is being talked about.</t>
+    <t>同じ人が話されていることを確実にするために、より容易になります。 / Allows greater ease in ensuring the same person is being talked about.</t>
   </si>
   <si>
     <t>name</t>
@@ -644,7 +645,7 @@
     <t>FamilyMemberHistory.relationship</t>
   </si>
   <si>
-    <t>Relationship to the subject</t>
+    <t>主題との関係 / Relationship to the subject</t>
   </si>
   <si>
     <t>The type of relationship this person has to the patient (father, mother, brother etc.). 患者と家族との関係の種類（父、母、兄弟など）</t>
@@ -665,10 +666,10 @@
     <t>The birth sex of the family member.（*Extensibleなのでこのまま列挙して必要に応じて追加するもあり）</t>
   </si>
   <si>
-    <t>This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
-  </si>
-  <si>
-    <t>Not all relationship codes imply sex and the relative's sex can be relevant for risk assessments.</t>
+    <t>この要素は、個人が遺伝的に男性か女性かを理想的に反映する必要があります。ただし、患者の知識または友人/親relativeの報告に基づいた報告された情報は、報告された性別が完全に正確ではない状況があるかもしれません。例えば。「スーおばさん」はxxではなくxyかもしれません。この情報を求める質問は、知られている場合の遺伝的性別の捕獲を促進するために表現されるべきです。ただし、分析を実行するシステムは、この要素との不正確さの可能性も可能にする必要があります。 / This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
+  </si>
+  <si>
+    <t>すべての関係コードが性別を意味するわけではなく、親relativeの性別がリスク評価に関連する可能性があります。 / Not all relationship codes imply sex and the relative's sex can be relevant for risk assessments.</t>
   </si>
   <si>
     <t>extensible</t>
@@ -687,13 +688,13 @@
 datestring</t>
   </si>
   <si>
-    <t>(approximate) date of birth</t>
+    <t>（おおよそ）生年月日 / (approximate) date of birth</t>
   </si>
   <si>
     <t>The actual or approximate date of birth of the relative. 家族の実際もしくは凡その生年月日。</t>
   </si>
   <si>
-    <t>Allows calculation of the relative's age.</t>
+    <t>親relativeの年齢の計算を可能にします。 / Allows calculation of the relative's age.</t>
   </si>
   <si>
     <t xml:space="preserve">fhs-1
@@ -710,13 +711,13 @@
 Rangestring</t>
   </si>
   <si>
-    <t>(approximate) age</t>
+    <t>（おおよそ）年齢 / (approximate) age</t>
   </si>
   <si>
     <t>The age of the relative at the time the family member history is recorded. 家族歴が記録された時点の親族の年齢。</t>
   </si>
   <si>
-    <t>use estimatedAge to indicate whether the age is actual or not.</t>
+    <t>推定値を使用して、年齢が実際のかどうかを示します。 / use estimatedAge to indicate whether the age is actual or not.</t>
   </si>
   <si>
     <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians. 年齢は生年月日から計算できるが、臨床医にとっては年齢を直接記録する方が自然な場合もある。</t>
@@ -732,19 +733,19 @@
 </t>
   </si>
   <si>
-    <t>Age is estimated?</t>
+    <t>年齢は推定されていますか？ / Age is estimated?</t>
   </si>
   <si>
     <t>If true, indicates that the age value specified is an estimated value. 年齢が推定かどうか。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
-  </si>
-  <si>
-    <t>Clinicians often prefer to specify an estimaged age rather than an age range.</t>
-  </si>
-  <si>
-    <t>It is unknown whether the age is an estimate or not</t>
+    <t>この要素は、年齢が推定されるという事実が、指定された年齢に基づいて計算するアルゴリズムの結果を変更できる/変更できるため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
+  </si>
+  <si>
+    <t>臨床医は、多くの場合、年齢範囲ではなく推定年齢を指定することを好みます。 / Clinicians often prefer to specify an estimaged age rather than an age range.</t>
+  </si>
+  <si>
+    <t>年齢が推定であるかどうかは不明です / It is unknown whether the age is an estimate or not</t>
   </si>
   <si>
     <t xml:space="preserve">fhs-2
@@ -758,7 +759,7 @@
 AgeRangedatestring</t>
   </si>
   <si>
-    <t>Dead? How old/when?</t>
+    <t>死？何歳/いつ？ / Dead? How old/when?</t>
   </si>
   <si>
     <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record. 死亡フラグ／家族の死亡時の実年齢／おおよその年齢。</t>
@@ -770,13 +771,13 @@
     <t>FamilyMemberHistory.reasonCode</t>
   </si>
   <si>
-    <t>Why was family member history performed?</t>
+    <t>なぜ家族の歴史が演奏されたのですか？ / Why was family member history performed?</t>
   </si>
   <si>
     <t>Describes why the family member history occurred in coded or textual form. 家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
   </si>
   <si>
-    <t>Textual reasons can be captured using reasonCode.text.</t>
+    <t>テキストの理由は、ReasonCode.textを使用してキャプチャできます。 / Textual reasons can be captured using reasonCode.text.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -811,7 +812,7 @@
 </t>
   </si>
   <si>
-    <t>General note about related person</t>
+    <t>関連者についての一般的なメモ / General note about related person</t>
   </si>
   <si>
     <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible. この家族に関するメモ。</t>
@@ -830,7 +831,7 @@
 </t>
   </si>
   <si>
-    <t>Condition that the related person had</t>
+    <t>関連者が持っていた状態 / Condition that the related person had</t>
   </si>
   <si>
     <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition. この家族が持っていた疾患（または状態）。</t>
@@ -842,10 +843,10 @@
     <t>FamilyMemberHistory.condition.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -857,7 +858,7 @@
     <t>FamilyMemberHistory.condition.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -870,10 +871,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -883,7 +885,7 @@
     <t>FamilyMemberHistory.condition.code</t>
   </si>
   <si>
-    <t>Condition suffered by relation</t>
+    <t>関係が被る状態 / Condition suffered by relation</t>
   </si>
   <si>
     <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.</t>
@@ -898,7 +900,7 @@
     <t>FamilyMemberHistory.condition.outcome</t>
   </si>
   <si>
-    <t>deceased | permanent disability | etc.</t>
+    <t>故人|永久障害|等 / deceased | permanent disability | etc.</t>
   </si>
   <si>
     <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.</t>
@@ -913,7 +915,7 @@
     <t>FamilyMemberHistory.condition.contributedToDeath</t>
   </si>
   <si>
-    <t>Whether the condition contributed to the cause of death</t>
+    <t>状態が死因に貢献したかどうか / Whether the condition contributed to the cause of death</t>
   </si>
   <si>
     <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.</t>
@@ -926,13 +928,13 @@
 RangePeriodstring</t>
   </si>
   <si>
-    <t>When condition first manifested</t>
+    <t>条件が最初に現れたとき / When condition first manifested</t>
   </si>
   <si>
     <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.</t>
   </si>
   <si>
-    <t>Age of onset of a condition in relatives is predictive of risk for the patient.</t>
+    <t>親relativeの状態の発症年齢は、患者のリスクを予測します。 / Age of onset of a condition in relatives is predictive of risk for the patient.</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="Subject Age at measurement", value&lt;Diagnosis].value[@xsi:typeCode='TS' or 'IVL_TS']  Use originalText for string</t>
@@ -941,7 +943,7 @@
     <t>FamilyMemberHistory.condition.note</t>
   </si>
   <si>
-    <t>Extra information about condition</t>
+    <t>状態に関する追加情報 / Extra information about condition</t>
   </si>
   <si>
     <t>An area where general notes can be placed about this specific condition.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -261,8 +261,8 @@
     <t>..</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}fhs-1:年齢[x]または生まれ[x]を持つことができますが、両方ではありません / Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:年齢[x]が存在する場合にのみ推定される可能性があります / Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -287,13 +287,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -306,16 +306,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -326,13 +326,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -345,19 +345,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -377,13 +377,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -403,13 +403,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -429,34 +429,33 @@
 </t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>FamilyMemberHistory.modifierExtension</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -475,7 +474,7 @@
     <t>Business identifiers assigned to this family member history by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
   </si>
   <si>
     <t>Allows identification of the family member history as it is known by various participating systems and in a way that remains consistent across servers.</t>
@@ -497,7 +496,7 @@
 </t>
   </si>
   <si>
-    <t>FHIRプロトコルまたは定義をインスタンス化します / Instantiates FHIR protocol or definition</t>
+    <t>Instantiates FHIR protocol or definition</t>
   </si>
   <si>
     <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory. （よくわからない）</t>
@@ -512,13 +511,13 @@
     <t>FamilyMemberHistory.instantiatesUri</t>
   </si>
   <si>
-    <t>外部プロトコルまたは定義をインスタンス化します / Instantiates external protocol or definition</t>
+    <t>Instantiates external protocol or definition</t>
   </si>
   <si>
     <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.（よくわからない）</t>
   </si>
   <si>
-    <t>これは、HTMLページ、PDFなどである可能性があるか、単に解決できないURI識別子である可能性があります。 / This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
   </si>
   <si>
     <t>Event.instantiatesUri</t>
@@ -533,7 +532,7 @@
     <t>A code specifying the status of the record of the family history of a specific family member. 家族歴の記録のステータス。記録が部分的なものか完全なものかなど。</t>
   </si>
   <si>
-    <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
@@ -564,7 +563,7 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>これは、ReasonCodeから明確なバインディングを可能にするための別の要素です。 / This is a separate element to allow it to have a distinct binding from reasonCode.</t>
+    <t>This is a separate element to allow it to have a distinct binding from reasonCode.</t>
   </si>
   <si>
     <t>example</t>
@@ -587,7 +586,7 @@
 </t>
   </si>
   <si>
-    <t>患者の歴史はについてです / Patient history is about</t>
+    <t>Patient history is about</t>
   </si>
   <si>
     <t>The person who this history concerns. 患者リソース（JP_Patient）への参照。</t>
@@ -609,16 +608,16 @@
 </t>
   </si>
   <si>
-    <t>履歴が記録されたとき、または最後に更新されたとき / When history was recorded or last updated</t>
+    <t>When history was recorded or last updated</t>
   </si>
   <si>
     <t>The date (and possibly time) when the family member history was recorded or last updated. この家族歴の最終更新日。</t>
   </si>
   <si>
-    <t>これは、完全な家族歴を集約するリストの日付と同じであってもキャプチャする必要があります。 / This should be captured even if the same as the date on the List aggregating the full family history.</t>
-  </si>
-  <si>
-    <t>概要がどのように電流であるかを判断できます。 / Allows determination of how current the summary is.</t>
+    <t>This should be captured even if the same as the date on the List aggregating the full family history.</t>
+  </si>
+  <si>
+    <t>Allows determination of how current the summary is.</t>
   </si>
   <si>
     <t>participation[typeCode=AUT].time</t>
@@ -630,13 +629,13 @@
     <t>FamilyMemberHistory.name</t>
   </si>
   <si>
-    <t>家族が説明した / The family member described</t>
+    <t>The family member described</t>
   </si>
   <si>
     <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair". 対象の家族の呼び名。例えば「スーザンおばさん」、「赤毛のいとこ」。</t>
   </si>
   <si>
-    <t>同じ人が話されていることを確実にするために、より容易になります。 / Allows greater ease in ensuring the same person is being talked about.</t>
+    <t>Allows greater ease in ensuring the same person is being talked about.</t>
   </si>
   <si>
     <t>name</t>
@@ -645,7 +644,7 @@
     <t>FamilyMemberHistory.relationship</t>
   </si>
   <si>
-    <t>主題との関係 / Relationship to the subject</t>
+    <t>Relationship to the subject</t>
   </si>
   <si>
     <t>The type of relationship this person has to the patient (father, mother, brother etc.). 患者と家族との関係の種類（父、母、兄弟など）</t>
@@ -666,10 +665,10 @@
     <t>The birth sex of the family member.（*Extensibleなのでこのまま列挙して必要に応じて追加するもあり）</t>
   </si>
   <si>
-    <t>この要素は、個人が遺伝的に男性か女性かを理想的に反映する必要があります。ただし、患者の知識または友人/親relativeの報告に基づいた報告された情報は、報告された性別が完全に正確ではない状況があるかもしれません。例えば。「スーおばさん」はxxではなくxyかもしれません。この情報を求める質問は、知られている場合の遺伝的性別の捕獲を促進するために表現されるべきです。ただし、分析を実行するシステムは、この要素との不正確さの可能性も可能にする必要があります。 / This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
-  </si>
-  <si>
-    <t>すべての関係コードが性別を意味するわけではなく、親relativeの性別がリスク評価に関連する可能性があります。 / Not all relationship codes imply sex and the relative's sex can be relevant for risk assessments.</t>
+    <t>This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
+  </si>
+  <si>
+    <t>Not all relationship codes imply sex and the relative's sex can be relevant for risk assessments.</t>
   </si>
   <si>
     <t>extensible</t>
@@ -688,13 +687,13 @@
 datestring</t>
   </si>
   <si>
-    <t>（おおよそ）生年月日 / (approximate) date of birth</t>
+    <t>(approximate) date of birth</t>
   </si>
   <si>
     <t>The actual or approximate date of birth of the relative. 家族の実際もしくは凡その生年月日。</t>
   </si>
   <si>
-    <t>親relativeの年齢の計算を可能にします。 / Allows calculation of the relative's age.</t>
+    <t>Allows calculation of the relative's age.</t>
   </si>
   <si>
     <t xml:space="preserve">fhs-1
@@ -711,13 +710,13 @@
 Rangestring</t>
   </si>
   <si>
-    <t>（おおよそ）年齢 / (approximate) age</t>
+    <t>(approximate) age</t>
   </si>
   <si>
     <t>The age of the relative at the time the family member history is recorded. 家族歴が記録された時点の親族の年齢。</t>
   </si>
   <si>
-    <t>推定値を使用して、年齢が実際のかどうかを示します。 / use estimatedAge to indicate whether the age is actual or not.</t>
+    <t>use estimatedAge to indicate whether the age is actual or not.</t>
   </si>
   <si>
     <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians. 年齢は生年月日から計算できるが、臨床医にとっては年齢を直接記録する方が自然な場合もある。</t>
@@ -733,19 +732,19 @@
 </t>
   </si>
   <si>
-    <t>年齢は推定されていますか？ / Age is estimated?</t>
+    <t>Age is estimated?</t>
   </si>
   <si>
     <t>If true, indicates that the age value specified is an estimated value. 年齢が推定かどうか。</t>
   </si>
   <si>
-    <t>この要素は、年齢が推定されるという事実が、指定された年齢に基づいて計算するアルゴリズムの結果を変更できる/変更できるため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
-  </si>
-  <si>
-    <t>臨床医は、多くの場合、年齢範囲ではなく推定年齢を指定することを好みます。 / Clinicians often prefer to specify an estimaged age rather than an age range.</t>
-  </si>
-  <si>
-    <t>年齢が推定であるかどうかは不明です / It is unknown whether the age is an estimate or not</t>
+    <t>This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
+  </si>
+  <si>
+    <t>Clinicians often prefer to specify an estimaged age rather than an age range.</t>
+  </si>
+  <si>
+    <t>It is unknown whether the age is an estimate or not</t>
   </si>
   <si>
     <t xml:space="preserve">fhs-2
@@ -759,7 +758,7 @@
 AgeRangedatestring</t>
   </si>
   <si>
-    <t>死？何歳/いつ？ / Dead? How old/when?</t>
+    <t>Dead? How old/when?</t>
   </si>
   <si>
     <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record. 死亡フラグ／家族の死亡時の実年齢／おおよその年齢。</t>
@@ -771,13 +770,13 @@
     <t>FamilyMemberHistory.reasonCode</t>
   </si>
   <si>
-    <t>なぜ家族の歴史が演奏されたのですか？ / Why was family member history performed?</t>
+    <t>Why was family member history performed?</t>
   </si>
   <si>
     <t>Describes why the family member history occurred in coded or textual form. 家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
   </si>
   <si>
-    <t>テキストの理由は、ReasonCode.textを使用してキャプチャできます。 / Textual reasons can be captured using reasonCode.text.</t>
+    <t>Textual reasons can be captured using reasonCode.text.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -812,7 +811,7 @@
 </t>
   </si>
   <si>
-    <t>関連者についての一般的なメモ / General note about related person</t>
+    <t>General note about related person</t>
   </si>
   <si>
     <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible. この家族に関するメモ。</t>
@@ -831,7 +830,7 @@
 </t>
   </si>
   <si>
-    <t>関連者が持っていた状態 / Condition that the related person had</t>
+    <t>Condition that the related person had</t>
   </si>
   <si>
     <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition. この家族が持っていた疾患（または状態）。</t>
@@ -843,10 +842,10 @@
     <t>FamilyMemberHistory.condition.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -858,7 +857,7 @@
     <t>FamilyMemberHistory.condition.extension</t>
   </si>
   <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -871,11 +870,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -885,7 +883,7 @@
     <t>FamilyMemberHistory.condition.code</t>
   </si>
   <si>
-    <t>関係が被る状態 / Condition suffered by relation</t>
+    <t>Condition suffered by relation</t>
   </si>
   <si>
     <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.</t>
@@ -900,7 +898,7 @@
     <t>FamilyMemberHistory.condition.outcome</t>
   </si>
   <si>
-    <t>故人|永久障害|等 / deceased | permanent disability | etc.</t>
+    <t>deceased | permanent disability | etc.</t>
   </si>
   <si>
     <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.</t>
@@ -915,7 +913,7 @@
     <t>FamilyMemberHistory.condition.contributedToDeath</t>
   </si>
   <si>
-    <t>状態が死因に貢献したかどうか / Whether the condition contributed to the cause of death</t>
+    <t>Whether the condition contributed to the cause of death</t>
   </si>
   <si>
     <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.</t>
@@ -928,13 +926,13 @@
 RangePeriodstring</t>
   </si>
   <si>
-    <t>条件が最初に現れたとき / When condition first manifested</t>
+    <t>When condition first manifested</t>
   </si>
   <si>
     <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.</t>
   </si>
   <si>
-    <t>親relativeの状態の発症年齢は、患者のリスクを予測します。 / Age of onset of a condition in relatives is predictive of risk for the patient.</t>
+    <t>Age of onset of a condition in relatives is predictive of risk for the patient.</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="Subject Age at measurement", value&lt;Diagnosis].value[@xsi:typeCode='TS' or 'IVL_TS']  Use originalText for string</t>
@@ -943,7 +941,7 @@
     <t>FamilyMemberHistory.condition.note</t>
   </si>
   <si>
-    <t>状態に関する追加情報 / Extra information about condition</t>
+    <t>Extra information about condition</t>
   </si>
   <si>
     <t>An area where general notes can be placed about this specific condition.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17</t>
+    <t>2022-08-04</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,10 +255,8 @@
     <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者に関連する情報（家族歴）</t>
   </si>
   <si>
-    <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.</t>
-  </si>
-  <si>
-    <t>..</t>
+    <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
+患者の診療に関連する患者家族の健康状態。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -468,7 +466,7 @@
 </t>
   </si>
   <si>
-    <t>External Id(s) for this record.</t>
+    <t>External Id(s) for this record</t>
   </si>
   <si>
     <t>Business identifiers assigned to this family member history by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
@@ -499,7 +497,7 @@
     <t>Instantiates FHIR protocol or definition</t>
   </si>
   <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory. （よくわからない）</t>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.</t>
   </si>
   <si>
     <t>Event.instantiatesCanonical</t>
@@ -514,7 +512,7 @@
     <t>Instantiates external protocol or definition</t>
   </si>
   <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.（よくわからない）</t>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.</t>
   </si>
   <si>
     <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
@@ -526,10 +524,11 @@
     <t>FamilyMemberHistory.status</t>
   </si>
   <si>
-    <t>partial | completed | entered-in-error | health-unknown（部分的｜完全｜記録エラー｜健康状態不明）</t>
-  </si>
-  <si>
-    <t>A code specifying the status of the record of the family history of a specific family member. 家族歴の記録のステータス。記録が部分的なものか完全なものかなど。</t>
+    <t>partial | completed | entered-in-error | health-unknown （部分的 | 完全 | 記録エラー | 健康状態不明）</t>
+  </si>
+  <si>
+    <t>A code specifying the status of the record of the family history of a specific family member.
+家族歴の記録のステータス。記録が部分的なものか完全なものかなど。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -538,7 +537,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/history-status</t>
+    <t>A code that identifies the status of the family history record.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/history-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -554,19 +556,20 @@
 </t>
   </si>
   <si>
-    <t>subject-unknown | withheld | unable-to-obtain | deferred (対象家族を知らない | 情報の提供を拒否 | 聞き出すことができない | 後日情報を提供できる)</t>
-  </si>
-  <si>
-    <t>Describes why the family member's history is not available. 1)subject-unknown：患者が対象の家族のことを知らない（例：患者は養子のため実親を知らない）, 2)withheld：患者が家族歴の共有を拒否, 3)unable-to-obtain：患者から聞き取れない（例：患者が意識不明）, 4)deferred：患者は今は知らないが、後日共有するつもりである。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>subject-unknown | withheld | unable-to-obtain | deferred (対象家族を知らない|情報の提供を拒否|聞き出すことができない|後日情報を提供できる)</t>
+  </si>
+  <si>
+    <t>Describes why the family member's history is not available.
+1)subject-unknown:患者が対象の家族のことを知らない（例:患者は養子のため実親を知らない）, 2)withheld:患者が家族歴の共有を拒否, 3)unable-to-obtain:患者から聞き取れない（例：患者が意識不明）, 4)deferred:患者は今は知らないが、後日共有するつもりである。</t>
   </si>
   <si>
     <t>This is a separate element to allow it to have a distinct binding from reasonCode.</t>
   </si>
   <si>
     <t>example</t>
+  </si>
+  <si>
+    <t>Codes describing the reason why a family member's history is not available.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/history-absent-reason</t>
@@ -589,7 +592,8 @@
     <t>Patient history is about</t>
   </si>
   <si>
-    <t>The person who this history concerns. 患者リソース（JP_Patient）への参照。</t>
+    <t>The person who this history concerns.
+この家族歴を有する患者。</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -611,7 +615,8 @@
     <t>When history was recorded or last updated</t>
   </si>
   <si>
-    <t>The date (and possibly time) when the family member history was recorded or last updated. この家族歴の最終更新日。</t>
+    <t>The date (and possibly time) when the family member history was recorded or last updated.
+この家族歴の最終更新日。</t>
   </si>
   <si>
     <t>This should be captured even if the same as the date on the List aggregating the full family history.</t>
@@ -632,7 +637,8 @@
     <t>The family member described</t>
   </si>
   <si>
-    <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair". 対象の家族の呼び名。例えば「スーザンおばさん」、「赤毛のいとこ」。</t>
+    <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair".
+対象の家族の呼び名。例えば「スーザンおばさん」「赤毛のいとこ」。</t>
   </si>
   <si>
     <t>Allows greater ease in ensuring the same person is being talked about.</t>
@@ -650,6 +656,9 @@
     <t>The type of relationship this person has to the patient (father, mother, brother etc.). 患者と家族との関係の種類（父、母、兄弟など）</t>
   </si>
   <si>
+    <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/ValueSet/v3-FamilyMember</t>
   </si>
   <si>
@@ -659,10 +668,11 @@
     <t>FamilyMemberHistory.sex</t>
   </si>
   <si>
-    <t>male | female | other | unknown（男性｜女性｜その他｜不明）</t>
-  </si>
-  <si>
-    <t>The birth sex of the family member.（*Extensibleなのでこのまま列挙して必要に応じて追加するもあり）</t>
+    <t>male | female | other | unknown（男性 | 女性 | その他 | 不明）</t>
+  </si>
+  <si>
+    <t>The birth sex of the family member.
+家族の出生時の性別。</t>
   </si>
   <si>
     <t>This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
@@ -674,7 +684,8 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Codes describing the sex assigned at birth as documented on the birth registration.（出生届に記載されている性別）</t>
+    <t>Codes describing the sex assigned at birth as documented on the birth registration.
+出生届に記載される出生時に割り当てられた性別。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
@@ -690,7 +701,8 @@
     <t>(approximate) date of birth</t>
   </si>
   <si>
-    <t>The actual or approximate date of birth of the relative. 家族の実際もしくは凡その生年月日。</t>
+    <t>The actual or approximate date of birth of the relative.
+家族の実際もしくは凡その生年月日。</t>
   </si>
   <si>
     <t>Allows calculation of the relative's age.</t>
@@ -713,13 +725,15 @@
     <t>(approximate) age</t>
   </si>
   <si>
-    <t>The age of the relative at the time the family member history is recorded. 家族歴が記録された時点の親族の年齢。</t>
+    <t>The age of the relative at the time the family member history is recorded.
+家族歴が記録された時点の親族の年齢。</t>
   </si>
   <si>
     <t>use estimatedAge to indicate whether the age is actual or not.</t>
   </si>
   <si>
-    <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians. 年齢は生年月日から計算できるが、臨床医にとっては年齢を直接記録する方が自然な場合もある。</t>
+    <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians.
+年齢は生年月日から計算できるが、臨床医にとっては年齢を直接記録する方が自然な場合もある。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ].act[classCode=OBS,moodCode=EVN, code="age"].value</t>
@@ -735,7 +749,8 @@
     <t>Age is estimated?</t>
   </si>
   <si>
-    <t>If true, indicates that the age value specified is an estimated value. 年齢が推定かどうか。</t>
+    <t>If true, indicates that the age value specified is an estimated value.
+年齢が推定かどうか。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
@@ -761,7 +776,8 @@
     <t>Dead? How old/when?</t>
   </si>
   <si>
-    <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record. 死亡フラグ／家族の死亡時の実年齢／おおよその年齢。</t>
+    <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record.
+死亡フラグ/家族の死亡時の実年齢/おおよその年齢。</t>
   </si>
   <si>
     <t>player[classCode=LIV, determinerCode=INSTANCE].deceasedInd, deceasedDate (could be URG)  For age, you'd hang an observation off the role</t>
@@ -777,6 +793,9 @@
   </si>
   <si>
     <t>Textual reasons can be captured using reasonCode.text.</t>
+  </si>
+  <si>
+    <t>Codes indicating why the family member history was done.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -795,7 +814,8 @@
 </t>
   </si>
   <si>
-    <t>Indicates a Condition, Observation, AllergyIntolerance, or QuestionnaireResponse that justifies this family member history event. この家族歴が聴取されたきっかけとなったFHIRリソースへの参照。</t>
+    <t>Indicates a JP_Condition, JP_Observation, JP_AllergyIntolerance, or JP_QuestionnaireResponse JP_Observation_Common, or JP_DiagnosticReport_Common that justifies this family member history event.
+この家族歴が聴取されたきっかけとなったFHIRリソースへの参照。</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -814,7 +834,8 @@
     <t>General note about related person</t>
   </si>
   <si>
-    <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible. この家族に関するメモ。</t>
+    <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible.
+この家族に関するメモ。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -833,7 +854,8 @@
     <t>Condition that the related person had</t>
   </si>
   <si>
-    <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition. この家族が持っていた疾患（または状態）。</t>
+    <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition.
+この家族が持っていた疾患。</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=ActCode#ASSERTION, value&lt;Diagnosis]</t>
@@ -886,7 +908,11 @@
     <t>Condition suffered by relation</t>
   </si>
   <si>
-    <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.</t>
+    <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.
+指定された実際の状態。その状態についてどの程度知られているか、また作成システムの能力に応じて、コード化された状態（MIや糖尿病など）、または「癌」のようなあまり特定されない文字列になる可能性がある。</t>
+  </si>
+  <si>
+    <t>Identification of the Condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -901,7 +927,11 @@
     <t>deceased | permanent disability | etc.</t>
   </si>
   <si>
-    <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.</t>
+    <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.
+その状態の後に何が起こったかを示す。その結果、死亡した場合は、死亡した日付が関連に記録される。</t>
+  </si>
+  <si>
+    <t>The result of the condition for the patient; e.g. death, permanent disability, temporary disability, etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-outcome</t>
@@ -916,7 +946,8 @@
     <t>Whether the condition contributed to the cause of death</t>
   </si>
   <si>
-    <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.</t>
+    <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.
+この状態は、関連者の死因に寄与した。contributedToDeath が入力されていない場合は、不明である。</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition.onset[x]</t>
@@ -929,7 +960,8 @@
     <t>When condition first manifested</t>
   </si>
   <si>
-    <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.</t>
+    <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.
+発症年齢、おおよその年齢範囲、記述文字列のいずれかを記録することができる。複数回発生する疾患については、最初に知られている発生を記述する。</t>
   </si>
   <si>
     <t>Age of onset of a condition in relatives is predictive of risk for the patient.</t>
@@ -944,7 +976,8 @@
     <t>Extra information about condition</t>
   </si>
   <si>
-    <t>An area where general notes can be placed about this specific condition.</t>
+    <t>An area where general notes can be placed about this specific condition.
+この特定の条件についての一般的なメモを記録することができる。</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1303,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1283,7 +1316,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.61328125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="112.3828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -1453,9 +1486,7 @@
       <c r="L2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>76</v>
@@ -1516,16 +1547,16 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>76</v>
@@ -1533,7 +1564,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1544,28 +1575,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1615,13 +1646,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1644,7 +1675,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1655,25 +1686,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1724,19 +1755,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -1753,7 +1784,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1764,28 +1795,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1835,19 +1866,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -1864,7 +1895,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1875,7 +1906,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -1887,16 +1918,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1922,43 +1953,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -1975,18 +2006,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -1998,16 +2029,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2057,28 +2088,28 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2086,11 +2117,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2109,16 +2140,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2168,7 +2199,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2189,7 +2220,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2197,11 +2228,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2220,16 +2251,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2279,7 +2310,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2291,7 +2322,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2300,7 +2331,7 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2308,11 +2339,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2325,25 +2356,25 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2392,7 +2423,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2404,7 +2435,7 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2413,7 +2444,7 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2421,7 +2452,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2441,22 +2472,22 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
@@ -2505,7 +2536,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -2517,24 +2548,24 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2554,16 +2585,16 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2614,7 +2645,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2626,16 +2657,16 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -2643,7 +2674,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2663,19 +2694,19 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2725,7 +2756,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -2737,16 +2768,16 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -2754,7 +2785,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2762,31 +2793,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2812,9 +2843,11 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
         <v>169</v>
       </c>
@@ -2834,19 +2867,19 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>170</v>
@@ -2874,16 +2907,16 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>173</v>
@@ -2894,11 +2927,9 @@
       <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -2923,9 +2954,11 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
         <v>179</v>
       </c>
@@ -2951,13 +2984,13 @@
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
@@ -2982,19 +3015,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>183</v>
@@ -3057,16 +3090,16 @@
         <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>186</v>
@@ -3094,16 +3127,16 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>190</v>
@@ -3173,13 +3206,13 @@
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3207,19 +3240,19 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s" s="2">
+      <c r="J18" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>198</v>
@@ -3284,13 +3317,13 @@
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
@@ -3315,19 +3348,19 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>173</v>
@@ -3363,11 +3396,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3388,16 +3423,16 @@
         <v>202</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3406,7 +3441,7 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3414,7 +3449,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3425,31 +3460,31 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3474,13 +3509,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3498,19 +3533,19 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -3527,7 +3562,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3538,7 +3573,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -3550,17 +3585,17 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3609,19 +3644,19 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
@@ -3630,7 +3665,7 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3638,7 +3673,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3649,31 +3684,31 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3722,19 +3757,19 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
@@ -3743,7 +3778,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3751,7 +3786,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3762,94 +3797,94 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -3866,7 +3901,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3877,25 +3912,25 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3946,19 +3981,19 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
@@ -3967,7 +4002,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -3975,7 +4010,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3995,19 +4030,19 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4033,11 +4068,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4055,7 +4092,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4067,10 +4104,10 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4079,12 +4116,12 @@
         <v>180</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4104,16 +4141,16 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4164,7 +4201,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4176,24 +4213,24 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4216,13 +4253,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4273,7 +4310,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4285,16 +4322,16 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4302,7 +4339,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4313,7 +4350,7 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -4325,13 +4362,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4382,7 +4419,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4394,7 +4431,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4403,7 +4440,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4411,7 +4448,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4422,7 +4459,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -4434,13 +4471,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4491,13 +4528,13 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -4512,7 +4549,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4520,11 +4557,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4543,16 +4580,16 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4602,7 +4639,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4614,7 +4651,7 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
@@ -4623,7 +4660,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4631,11 +4668,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4648,25 +4685,25 @@
         <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -4715,7 +4752,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4727,7 +4764,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -4736,7 +4773,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4744,7 +4781,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4752,10 +4789,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -4770,10 +4807,10 @@
         <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4800,11 +4837,13 @@
         <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -4822,19 +4861,19 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
@@ -4843,7 +4882,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4851,7 +4890,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4862,7 +4901,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -4877,10 +4916,10 @@
         <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4907,41 +4946,43 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="Y33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -4950,7 +4991,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -4958,7 +4999,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4969,7 +5010,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -4981,13 +5022,13 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5038,19 +5079,19 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
@@ -5067,7 +5108,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5078,7 +5119,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5090,17 +5131,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5149,19 +5190,19 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
@@ -5170,7 +5211,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5178,7 +5219,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5201,13 +5242,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5258,7 +5299,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5270,7 +5311,7 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
@@ -5279,7 +5320,7 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -252,11 +252,11 @@
     <t>*</t>
   </si>
   <si>
-    <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者に関連する情報（家族歴）</t>
+    <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者の診療に関連する情報（家族歴）</t>
   </si>
   <si>
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
-患者の診療に関連する患者家族の健康状態。</t>
+患者の診療に関連する患者家族の疾患。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -560,7 +560,10 @@
   </si>
   <si>
     <t>Describes why the family member's history is not available.
-1)subject-unknown:患者が対象の家族のことを知らない（例:患者は養子のため実親を知らない）, 2)withheld:患者が家族歴の共有を拒否, 3)unable-to-obtain:患者から聞き取れない（例：患者が意識不明）, 4)deferred:患者は今は知らないが、後日共有するつもりである。</t>
+1)subject-unknown:患者が対象の家族のことを知らない（例:患者は養子のため実親を知らない）
+2)withheld:患者が家族歴の共有を拒否
+3)unable-to-obtain:患者から聞き取れない（例：患者が意識不明）
+4)deferred:患者は今は知らないが、後日共有するつもりである</t>
   </si>
   <si>
     <t>This is a separate element to allow it to have a distinct binding from reasonCode.</t>
@@ -653,7 +656,8 @@
     <t>Relationship to the subject</t>
   </si>
   <si>
-    <t>The type of relationship this person has to the patient (father, mother, brother etc.). 患者と家族との関係の種類（父、母、兄弟など）</t>
+    <t>The type of relationship this person has to the patient (father, mother, brother etc.). 
+患者と家族との関係の種類（父、母、兄弟など）</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
@@ -726,7 +730,7 @@
   </si>
   <si>
     <t>The age of the relative at the time the family member history is recorded.
-家族歴が記録された時点の親族の年齢。</t>
+家族歴が記録された時点のその家族の年齢。</t>
   </si>
   <si>
     <t>use estimatedAge to indicate whether the age is actual or not.</t>
@@ -750,7 +754,7 @@
   </si>
   <si>
     <t>If true, indicates that the age value specified is an estimated value.
-年齢が推定かどうか。</t>
+この年齢が推定かどうか。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
@@ -789,7 +793,8 @@
     <t>Why was family member history performed?</t>
   </si>
   <si>
-    <t>Describes why the family member history occurred in coded or textual form. 家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
+    <t>Describes why the family member history occurred in coded or textual form.
+家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
   </si>
   <si>
     <t>Textual reasons can be captured using reasonCode.text.</t>
@@ -977,7 +982,7 @@
   </si>
   <si>
     <t>An area where general notes can be placed about this specific condition.
-この特定の条件についての一般的なメモを記録することができる。</t>
+この家族の疾患についての一般的なメモ。</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -281,7 +281,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -635,6 +635,10 @@
   </si>
   <si>
     <t>FamilyMemberHistory.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>The family member described</t>
@@ -3257,17 +3261,17 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3337,7 +3341,7 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3345,7 +3349,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3371,10 +3375,10 @@
         <v>173</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3404,10 +3408,10 @@
         <v>177</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3425,7 +3429,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -3446,7 +3450,7 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3454,7 +3458,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3480,16 +3484,16 @@
         <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3514,13 +3518,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3538,7 +3542,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3567,7 +3571,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3590,17 +3594,17 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3649,7 +3653,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3658,7 +3662,7 @@
         <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
@@ -3670,7 +3674,7 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3701,19 +3705,19 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3762,7 +3766,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3771,7 +3775,7 @@
         <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -3783,7 +3787,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3791,7 +3795,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3814,70 +3818,70 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3886,7 +3890,7 @@
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>98</v>
@@ -3906,7 +3910,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3929,13 +3933,13 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3986,7 +3990,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4007,7 +4011,7 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4015,7 +4019,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4041,13 +4045,13 @@
         <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4076,10 +4080,10 @@
         <v>177</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4097,7 +4101,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4112,7 +4116,7 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4121,12 +4125,12 @@
         <v>180</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4149,13 +4153,13 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4206,7 +4210,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4221,21 +4225,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4258,13 +4262,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4315,7 +4319,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4330,13 +4334,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4344,7 +4348,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4367,13 +4371,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4424,7 +4428,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4445,7 +4449,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4453,7 +4457,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4476,13 +4480,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4533,7 +4537,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4554,7 +4558,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4562,7 +4566,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4591,7 +4595,7 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>135</v>
@@ -4644,7 +4648,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4665,7 +4669,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4673,11 +4677,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4699,10 +4703,10 @@
         <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>135</v>
@@ -4757,7 +4761,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4786,7 +4790,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4812,10 +4816,10 @@
         <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4845,10 +4849,10 @@
         <v>177</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -4866,7 +4870,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>86</v>
@@ -4887,7 +4891,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4895,7 +4899,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4921,10 +4925,10 @@
         <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4954,10 +4958,10 @@
         <v>177</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -4975,7 +4979,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4996,7 +5000,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5004,7 +5008,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5027,13 +5031,13 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5084,7 +5088,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5113,7 +5117,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5136,17 +5140,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5195,7 +5199,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5216,7 +5220,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5224,7 +5228,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5247,13 +5251,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5304,7 +5308,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5325,7 +5329,7 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04</t>
+    <t>2022-09-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,7 +252,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Information about patient's relatives, relevant for patient. 患者の親族に関する情報のうち、患者の診療に関連する情報（家族歴）</t>
+    <t>Information about patient's relatives, relevant for patient. 患者の家族に関する情報のうち、患者の診療に関連する情報（家族歴）</t>
   </si>
   <si>
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
@@ -375,7 +375,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約。</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -592,7 +592,7 @@
 </t>
   </si>
   <si>
-    <t>Patient history is about</t>
+    <t>Patient history is about. この家族歴を有する患者。</t>
   </si>
   <si>
     <t>The person who this history concerns.
@@ -615,7 +615,7 @@
 </t>
   </si>
   <si>
-    <t>When history was recorded or last updated</t>
+    <t>When history was recorded or last updated. この家族歴の最終更新日。</t>
   </si>
   <si>
     <t>The date (and possibly time) when the family member history was recorded or last updated.
@@ -641,7 +641,7 @@
 </t>
   </si>
   <si>
-    <t>The family member described</t>
+    <t>The family member described. この家族の呼び名。</t>
   </si>
   <si>
     <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair".
@@ -657,7 +657,7 @@
     <t>FamilyMemberHistory.relationship</t>
   </si>
   <si>
-    <t>Relationship to the subject</t>
+    <t>Relationship to the subject. 患者とこの家族との関係（父、母、兄弟など）</t>
   </si>
   <si>
     <t>The type of relationship this person has to the patient (father, mother, brother etc.). 
@@ -706,11 +706,11 @@
 datestring</t>
   </si>
   <si>
-    <t>(approximate) date of birth</t>
+    <t>(approximate) date of birth. この家族の生年月日（おおよそ）</t>
   </si>
   <si>
     <t>The actual or approximate date of birth of the relative.
-家族の実際もしくは凡その生年月日。</t>
+家族の実際もしくはおおよその生年月日。</t>
   </si>
   <si>
     <t>Allows calculation of the relative's age.</t>
@@ -730,7 +730,7 @@
 Rangestring</t>
   </si>
   <si>
-    <t>(approximate) age</t>
+    <t>(approximate) age. この家族の年齢（おおよそ）</t>
   </si>
   <si>
     <t>The age of the relative at the time the family member history is recorded.
@@ -754,7 +754,7 @@
 </t>
   </si>
   <si>
-    <t>Age is estimated?</t>
+    <t>Age is estimated? この家族の年齢は推定か？</t>
   </si>
   <si>
     <t>If true, indicates that the age value specified is an estimated value.
@@ -781,7 +781,7 @@
 AgeRangedatestring</t>
   </si>
   <si>
-    <t>Dead? How old/when?</t>
+    <t>Dead? How old/when? この家族が亡くなっているか、そうであれば何歳でいつ亡くなったか。</t>
   </si>
   <si>
     <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record.
@@ -794,7 +794,7 @@
     <t>FamilyMemberHistory.reasonCode</t>
   </si>
   <si>
-    <t>Why was family member history performed?</t>
+    <t>Why was family member history performed? なぜ家族歴が聴取されたか（きっかけとなった患者の疾患）</t>
   </si>
   <si>
     <t>Describes why the family member history occurred in coded or textual form.
@@ -823,6 +823,9 @@
 </t>
   </si>
   <si>
+    <t>Why was family member history performed? （なぜ家族歴が聴取されたか（きっかけとなったFHIRリソース）</t>
+  </si>
+  <si>
     <t>Indicates a JP_Condition, JP_Observation, JP_AllergyIntolerance, or JP_QuestionnaireResponse JP_Observation_Common, or JP_DiagnosticReport_Common that justifies this family member history event.
 この家族歴が聴取されたきっかけとなったFHIRリソースへの参照。</t>
   </si>
@@ -860,7 +863,7 @@
 </t>
   </si>
   <si>
-    <t>Condition that the related person had</t>
+    <t>Condition that the related person had. この家族が有する疾患歴。</t>
   </si>
   <si>
     <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition.
@@ -4156,10 +4159,10 @@
         <v>253</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4225,13 +4228,13 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>251</v>
@@ -4239,7 +4242,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4262,13 +4265,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4319,7 +4322,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4334,13 +4337,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4348,7 +4351,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4371,13 +4374,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4428,7 +4431,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4449,7 +4452,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4457,7 +4460,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4483,10 +4486,10 @@
         <v>198</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4537,7 +4540,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4558,7 +4561,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4566,7 +4569,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4595,7 +4598,7 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>135</v>
@@ -4648,7 +4651,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4669,7 +4672,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4677,11 +4680,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4703,10 +4706,10 @@
         <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>135</v>
@@ -4761,7 +4764,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4790,7 +4793,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4816,10 +4819,10 @@
         <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4849,10 +4852,10 @@
         <v>177</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -4870,7 +4873,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>86</v>
@@ -4891,7 +4894,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4899,7 +4902,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4925,10 +4928,10 @@
         <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4958,10 +4961,10 @@
         <v>177</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -4979,7 +4982,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5000,7 +5003,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5034,10 +5037,10 @@
         <v>232</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5088,7 +5091,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5117,7 +5120,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5140,17 +5143,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5199,7 +5202,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5220,7 +5223,7 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5228,7 +5231,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5251,13 +5254,13 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5308,7 +5311,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5329,7 +5332,7 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -556,7 +556,7 @@
 </t>
   </si>
   <si>
-    <t>subject-unknown | withheld | unable-to-obtain | deferred (対象家族を知らない|情報の提供を拒否|聞き出すことができない|後日情報を提供できる)</t>
+    <t>subject-unknown | withheld | unable-to-obtain | deferred (対象家族を知らない | 情報の提供を拒否 | 聞き出すことができない | 後日情報を提供できる)</t>
   </si>
   <si>
     <t>Describes why the family member's history is not available.
@@ -641,7 +641,7 @@
 </t>
   </si>
   <si>
-    <t>The family member described. この家族の呼び名。</t>
+    <t>The family member described. この家族の名前。</t>
   </si>
   <si>
     <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair".
@@ -657,11 +657,11 @@
     <t>FamilyMemberHistory.relationship</t>
   </si>
   <si>
-    <t>Relationship to the subject. 患者とこの家族との関係（父、母、兄弟など）</t>
+    <t>Relationship to the subject. この家族の患者との関係（父、母、兄弟など）</t>
   </si>
   <si>
     <t>The type of relationship this person has to the patient (father, mother, brother etc.). 
-患者と家族との関係の種類（父、母、兄弟など）</t>
+この家族が患者とどのような関係か（父、母、兄弟など）</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
@@ -680,7 +680,7 @@
   </si>
   <si>
     <t>The birth sex of the family member.
-家族の出生時の性別。</t>
+この家族の出生時の性別。</t>
   </si>
   <si>
     <t>This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
@@ -706,7 +706,7 @@
 datestring</t>
   </si>
   <si>
-    <t>(approximate) date of birth. この家族の生年月日（おおよそ）</t>
+    <t>(approximate) date of birth. この家族のおよその生年月日。</t>
   </si>
   <si>
     <t>The actual or approximate date of birth of the relative.
@@ -730,11 +730,11 @@
 Rangestring</t>
   </si>
   <si>
-    <t>(approximate) age. この家族の年齢（おおよそ）</t>
+    <t>(approximate) age. この家族のおよその年齢。</t>
   </si>
   <si>
     <t>The age of the relative at the time the family member history is recorded.
-家族歴が記録された時点のその家族の年齢。</t>
+家族歴が記録された時点でのこの家族の年齢。</t>
   </si>
   <si>
     <t>use estimatedAge to indicate whether the age is actual or not.</t>
@@ -758,7 +758,7 @@
   </si>
   <si>
     <t>If true, indicates that the age value specified is an estimated value.
-この年齢が推定かどうか。</t>
+Trueである場合この年齢は推定値である。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
@@ -781,11 +781,11 @@
 AgeRangedatestring</t>
   </si>
   <si>
-    <t>Dead? How old/when? この家族が亡くなっているか、そうであれば何歳でいつ亡くなったか。</t>
+    <t>Dead? How old/when? この家族は亡くなっているか、そうであれば何歳もしくはいつ亡くなったか。</t>
   </si>
   <si>
     <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record.
-死亡フラグ/家族の死亡時の実年齢/おおよその年齢。</t>
+死亡したかどうかのフラグ/家族の死亡時の実年齢/おおよその年齢。</t>
   </si>
   <si>
     <t>player[classCode=LIV, determinerCode=INSTANCE].deceasedInd, deceasedDate (could be URG)  For age, you'd hang an observation off the role</t>
@@ -794,11 +794,11 @@
     <t>FamilyMemberHistory.reasonCode</t>
   </si>
   <si>
-    <t>Why was family member history performed? なぜ家族歴が聴取されたか（きっかけとなった患者の疾患）</t>
+    <t>Why was family member history performed? なぜ家族歴が聴取されたか（契機となった患者の疾患）</t>
   </si>
   <si>
     <t>Describes why the family member history occurred in coded or textual form.
-家族歴を聴取した理由となる疾患（患者が有する疾患）</t>
+家族歴を聴取する契機となった患者の疾患をコードもしくはテキストで記述（CodeableConcept)</t>
   </si>
   <si>
     <t>Textual reasons can be captured using reasonCode.text.</t>
@@ -823,7 +823,7 @@
 </t>
   </si>
   <si>
-    <t>Why was family member history performed? （なぜ家族歴が聴取されたか（きっかけとなったFHIRリソース）</t>
+    <t>Why was family member history performed? なぜ家族歴が聴取されたか（契機となったFHIRリソース）</t>
   </si>
   <si>
     <t>Indicates a JP_Condition, JP_Observation, JP_AllergyIntolerance, or JP_QuestionnaireResponse JP_Observation_Common, or JP_DiagnosticReport_Common that justifies this family member history event.
@@ -863,7 +863,7 @@
 </t>
   </si>
   <si>
-    <t>Condition that the related person had. この家族が有する疾患歴。</t>
+    <t>Condition that the related person had. この家族が有する疾患。</t>
   </si>
   <si>
     <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition.
@@ -917,11 +917,11 @@
     <t>FamilyMemberHistory.condition.code</t>
   </si>
   <si>
-    <t>Condition suffered by relation</t>
+    <t>Condition suffered by relation. この家族の疾患。</t>
   </si>
   <si>
     <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.
-指定された実際の状態。その状態についてどの程度知られているか、また作成システムの能力に応じて、コード化された状態（MIや糖尿病など）、または「癌」のようなあまり特定されない文字列になる可能性がある。</t>
+この疾患について知られている程度や作成システムの能力に応じて、コード化された状態（MIや糖尿病など）、または「がん」のようなあまり特定されない文字列になる可能性がある。</t>
   </si>
   <si>
     <t>Identification of the Condition or diagnosis.</t>
@@ -936,7 +936,7 @@
     <t>FamilyMemberHistory.condition.outcome</t>
   </si>
   <si>
-    <t>deceased | permanent disability | etc.</t>
+    <t>deceased | permanent disability | etc. （死亡 | 後遺障害 | その他）</t>
   </si>
   <si>
     <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.
@@ -955,11 +955,11 @@
     <t>FamilyMemberHistory.condition.contributedToDeath</t>
   </si>
   <si>
-    <t>Whether the condition contributed to the cause of death</t>
+    <t xml:space="preserve">	Whether the condition contributed to the cause of death. この疾患が死亡の原因となったかどうか。</t>
   </si>
   <si>
     <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.
-この状態は、関連者の死因に寄与した。contributedToDeath が入力されていない場合は、不明である。</t>
+この疾患が家族の死亡に寄与したかどうかのフラグ。入力されていない場合は、不明である。</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition.onset[x]</t>
@@ -969,11 +969,11 @@
 RangePeriodstring</t>
   </si>
   <si>
-    <t>When condition first manifested</t>
+    <t>When condition first manifested. この疾患のオンセット。</t>
   </si>
   <si>
     <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.
-発症年齢、おおよその年齢範囲、記述文字列のいずれかを記録することができる。複数回発生する疾患については、最初に知られている発生を記述する。</t>
+発症年齢、おおよその年齢範囲、記述文字列のいずれかを記録する。複数回発生する疾患については、最初に知られている発生を記述する。</t>
   </si>
   <si>
     <t>Age of onset of a condition in relatives is predictive of risk for the patient.</t>
@@ -985,11 +985,11 @@
     <t>FamilyMemberHistory.condition.note</t>
   </si>
   <si>
-    <t>Extra information about condition</t>
+    <t>Extra information about condition. この疾患についての追加の情報メモ。</t>
   </si>
   <si>
     <t>An area where general notes can be placed about this specific condition.
-この家族の疾患についての一般的なメモ。</t>
+この疾患についての一般的なメモ。</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1315,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -955,7 +955,7 @@
     <t>FamilyMemberHistory.condition.contributedToDeath</t>
   </si>
   <si>
-    <t xml:space="preserve">	Whether the condition contributed to the cause of death. この疾患が死亡の原因となったかどうか。</t>
+    <t>¥Whether the condition contributed to the cause of death. この疾患が死亡の原因となったかどうか。</t>
   </si>
   <si>
     <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -252,11 +252,11 @@
     <t>*</t>
   </si>
   <si>
-    <t>Information about patient's relatives, relevant for patient. 患者の家族に関する情報のうち、患者の診療に関連する情報（家族歴）</t>
+    <t>Information about patient's relatives, relevant for patient. 患者の家族に関する情報のうち、患者に関連する情報（家族歴）</t>
   </si>
   <si>
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
-患者の診療に関連する患者家族の疾患。</t>
+患者の診療に関連する、患者家族の疾患に関する情報。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -524,7 +524,7 @@
     <t>FamilyMemberHistory.status</t>
   </si>
   <si>
-    <t>partial | completed | entered-in-error | health-unknown （部分的 | 完全 | 記録エラー | 健康状態不明）</t>
+    <t>partial | completed | entered-in-error | health-unknown この家族歴の記録ステータス（部分的 | 完全 | 記録エラー | 健康状態不明）</t>
   </si>
   <si>
     <t>A code specifying the status of the record of the family history of a specific family member.
@@ -556,7 +556,7 @@
 </t>
   </si>
   <si>
-    <t>subject-unknown | withheld | unable-to-obtain | deferred (対象家族を知らない | 情報の提供を拒否 | 聞き出すことができない | 後日情報を提供できる)</t>
+    <t>subject-unknown | withheld | unable-to-obtain | deferred この家族歴が記録されない理由(対象家族を知らない | 情報の提供を拒否 | 聞き出すことができない | 後日情報を提供できる)</t>
   </si>
   <si>
     <t>Describes why the family member's history is not available.
@@ -676,7 +676,7 @@
     <t>FamilyMemberHistory.sex</t>
   </si>
   <si>
-    <t>male | female | other | unknown（男性 | 女性 | その他 | 不明）</t>
+    <t>male | female | other | unknown 性別（男性 | 女性 | その他 | 不明）</t>
   </si>
   <si>
     <t>The birth sex of the family member.
@@ -843,7 +843,7 @@
 </t>
   </si>
   <si>
-    <t>General note about related person</t>
+    <t>General note about related person. この家族に関するメモ。</t>
   </si>
   <si>
     <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible.
@@ -936,7 +936,7 @@
     <t>FamilyMemberHistory.condition.outcome</t>
   </si>
   <si>
-    <t>deceased | permanent disability | etc. （死亡 | 後遺障害 | その他）</t>
+    <t>deceased | permanent disability | etc. この疾患のアウトカム（死亡 | 後遺障害 | その他）</t>
   </si>
   <si>
     <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.
@@ -955,7 +955,7 @@
     <t>FamilyMemberHistory.condition.contributedToDeath</t>
   </si>
   <si>
-    <t>¥Whether the condition contributed to the cause of death. この疾患が死亡の原因となったかどうか。</t>
+    <t>Whether the condition contributed to the cause of death. この疾患が死亡の原因となったかどうか。</t>
   </si>
   <si>
     <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.
@@ -1315,7 +1315,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="117.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -375,7 +375,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約。</t>
+    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -592,7 +592,7 @@
 </t>
   </si>
   <si>
-    <t>Patient history is about. この家族歴を有する患者。</t>
+    <t>Patient history is about. この家族歴を有する患者</t>
   </si>
   <si>
     <t>The person who this history concerns.
@@ -615,7 +615,7 @@
 </t>
   </si>
   <si>
-    <t>When history was recorded or last updated. この家族歴の最終更新日。</t>
+    <t>When history was recorded or last updated. この家族歴の最終更新日</t>
   </si>
   <si>
     <t>The date (and possibly time) when the family member history was recorded or last updated.
@@ -641,7 +641,7 @@
 </t>
   </si>
   <si>
-    <t>The family member described. この家族の名前。</t>
+    <t>The family member described. この家族の名前</t>
   </si>
   <si>
     <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair".
@@ -706,7 +706,7 @@
 datestring</t>
   </si>
   <si>
-    <t>(approximate) date of birth. この家族のおよその生年月日。</t>
+    <t>(approximate) date of birth. この家族のおよその生年月日</t>
   </si>
   <si>
     <t>The actual or approximate date of birth of the relative.
@@ -730,7 +730,7 @@
 Rangestring</t>
   </si>
   <si>
-    <t>(approximate) age. この家族のおよその年齢。</t>
+    <t>(approximate) age. この家族のおよその年齢</t>
   </si>
   <si>
     <t>The age of the relative at the time the family member history is recorded.
@@ -781,7 +781,7 @@
 AgeRangedatestring</t>
   </si>
   <si>
-    <t>Dead? How old/when? この家族は亡くなっているか、そうであれば何歳もしくはいつ亡くなったか。</t>
+    <t>Dead? How old/when? この家族は亡くなっているか、そうであれば何歳もしくはいつ亡くなったか</t>
   </si>
   <si>
     <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record.
@@ -843,7 +843,7 @@
 </t>
   </si>
   <si>
-    <t>General note about related person. この家族に関するメモ。</t>
+    <t>General note about related person. この家族に関するメモ</t>
   </si>
   <si>
     <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible.
@@ -863,7 +863,7 @@
 </t>
   </si>
   <si>
-    <t>Condition that the related person had. この家族が有する疾患。</t>
+    <t>Condition that the related person had. この家族が有する疾患</t>
   </si>
   <si>
     <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition.
@@ -917,7 +917,7 @@
     <t>FamilyMemberHistory.condition.code</t>
   </si>
   <si>
-    <t>Condition suffered by relation. この家族の疾患。</t>
+    <t>Condition suffered by relation. この家族の疾患</t>
   </si>
   <si>
     <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.
@@ -955,7 +955,7 @@
     <t>FamilyMemberHistory.condition.contributedToDeath</t>
   </si>
   <si>
-    <t>Whether the condition contributed to the cause of death. この疾患が死亡の原因となったかどうか。</t>
+    <t>Whether the condition contributed to the cause of death. この疾患が死亡の原因となったかどうか</t>
   </si>
   <si>
     <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.
@@ -969,7 +969,7 @@
 RangePeriodstring</t>
   </si>
   <si>
-    <t>When condition first manifested. この疾患のオンセット。</t>
+    <t>When condition first manifested. この疾患のオンセット</t>
   </si>
   <si>
     <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.
@@ -985,7 +985,7 @@
     <t>FamilyMemberHistory.condition.note</t>
   </si>
   <si>
-    <t>Extra information about condition. この疾患についての追加の情報メモ。</t>
+    <t>Extra information about condition. この疾患についての追加の情報メモ</t>
   </si>
   <si>
     <t>An area where general notes can be placed about this specific condition.

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -257,10 +260,6 @@
   <si>
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
 患者の診療に関連する、患者家族の疾患に関する情報。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1238,55 +1237,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1348,218 +1347,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>82</v>
@@ -1571,7 +1570,7 @@
         <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1580,20 +1579,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>87</v>
@@ -1612,77 +1611,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1691,20 +1690,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>87</v>
@@ -1721,77 +1720,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1800,17 +1799,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>87</v>
@@ -1832,77 +1831,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1911,23 +1910,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -1943,26 +1942,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>110</v>
@@ -1974,46 +1973,46 @@
         <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2026,19 +2025,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>116</v>
@@ -2054,77 +2053,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2136,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>124</v>
@@ -2165,77 +2164,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2248,19 +2247,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>132</v>
@@ -2276,77 +2275,77 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2359,19 +2358,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>132</v>
@@ -2389,77 +2388,77 @@
         <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2468,20 +2467,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>87</v>
@@ -2502,62 +2501,62 @@
         <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>98</v>
@@ -2566,7 +2565,7 @@
         <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>150</v>
@@ -2581,20 +2580,20 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
@@ -2611,62 +2610,62 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
@@ -2675,13 +2674,13 @@
         <v>156</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -2690,20 +2689,20 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>87</v>
@@ -2722,62 +2721,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>98</v>
@@ -2786,13 +2785,13 @@
         <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2801,7 +2800,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2811,7 +2810,7 @@
         <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>87</v>
@@ -2833,26 +2832,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>167</v>
@@ -2864,19 +2863,19 @@
         <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>163</v>
@@ -2888,7 +2887,7 @@
         <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>98</v>
@@ -2897,10 +2896,10 @@
         <v>170</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>171</v>
@@ -2912,20 +2911,20 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>87</v>
@@ -2944,26 +2943,26 @@
         <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>177</v>
@@ -2975,46 +2974,46 @@
         <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -3033,10 +3032,10 @@
         <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>87</v>
@@ -3053,50 +3052,50 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>181</v>
@@ -3108,7 +3107,7 @@
         <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>98</v>
@@ -3117,7 +3116,7 @@
         <v>186</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>187</v>
@@ -3132,20 +3131,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
@@ -3166,71 +3165,71 @@
         <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>195</v>
@@ -3245,20 +3244,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
@@ -3277,77 +3276,77 @@
         <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3356,7 +3355,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3366,10 +3365,10 @@
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>87</v>
@@ -3386,26 +3385,26 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>177</v>
@@ -3417,19 +3416,19 @@
         <v>207</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>203</v>
@@ -3441,22 +3440,22 @@
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -3465,20 +3464,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>87</v>
@@ -3499,26 +3498,26 @@
         <v>213</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>214</v>
@@ -3530,46 +3529,46 @@
         <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -3578,23 +3577,23 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>218</v>
@@ -3610,56 +3609,56 @@
         <v>221</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3671,16 +3670,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -3689,20 +3688,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>87</v>
@@ -3723,56 +3722,56 @@
         <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -3784,16 +3783,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -3802,20 +3801,20 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>87</v>
@@ -3836,58 +3835,58 @@
         <v>236</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>237</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3899,16 +3898,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -3917,20 +3916,20 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>87</v>
@@ -3947,77 +3946,77 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -4026,20 +4025,20 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>87</v>
@@ -4058,26 +4057,26 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>177</v>
@@ -4089,31 +4088,31 @@
         <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
@@ -4122,7 +4121,7 @@
         <v>250</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>180</v>
@@ -4137,20 +4136,20 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>87</v>
@@ -4167,62 +4166,62 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>98</v>
@@ -4231,7 +4230,7 @@
         <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>257</v>
@@ -4246,23 +4245,23 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>259</v>
@@ -4276,62 +4275,62 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
@@ -4340,13 +4339,13 @@
         <v>262</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -4355,23 +4354,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>265</v>
@@ -4385,77 +4384,77 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -4464,23 +4463,23 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>198</v>
@@ -4494,77 +4493,77 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -4577,19 +4576,19 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>132</v>
@@ -4605,77 +4604,77 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -4688,13 +4687,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>87</v>
@@ -4718,77 +4717,77 @@
         <v>141</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>281</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -4797,7 +4796,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4807,13 +4806,13 @@
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>173</v>
@@ -4827,26 +4826,26 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>177</v>
@@ -4858,19 +4857,19 @@
         <v>286</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>282</v>
@@ -4882,22 +4881,22 @@
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -4906,23 +4905,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>173</v>
@@ -4936,26 +4935,26 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>177</v>
@@ -4967,46 +4966,46 @@
         <v>292</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5015,23 +5014,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>232</v>
@@ -5045,77 +5044,77 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -5124,23 +5123,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>298</v>
@@ -5156,77 +5155,77 @@
         <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -5235,23 +5234,23 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>259</v>
@@ -5265,77 +5264,77 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>263</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1295,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1305,44 +1308,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.2109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="117.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="112.3828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="112.3828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.70703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="49.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="188.0234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="188.0234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1463,105 +1466,108 @@
       <c r="AM1" t="s" s="1">
         <v>76</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>83</v>
@@ -1570,32 +1576,35 @@
         <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>88</v>
@@ -1609,107 +1618,110 @@
       <c r="M3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>95</v>
@@ -1717,108 +1729,111 @@
       <c r="L4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>101</v>
@@ -1829,107 +1844,110 @@
       <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>107</v>
@@ -1940,31 +1958,31 @@
       <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>111</v>
@@ -1973,74 +1991,77 @@
         <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>117</v>
@@ -2051,107 +2072,110 @@
       <c r="M7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>122</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>125</v>
@@ -2162,107 +2186,110 @@
       <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>133</v>
@@ -2273,220 +2300,226 @@
       <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>145</v>
@@ -2501,105 +2534,108 @@
         <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>151</v>
       </c>
+      <c r="AN11" t="s" s="2">
+        <v>152</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>154</v>
@@ -2607,111 +2643,114 @@
       <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>160</v>
@@ -2719,110 +2758,113 @@
       <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AF13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>77</v>
+      <c r="AN13" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>165</v>
@@ -2830,31 +2872,31 @@
       <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>168</v>
@@ -2863,74 +2905,77 @@
         <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>174</v>
@@ -2938,34 +2983,34 @@
       <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>178</v>
@@ -2974,74 +3019,77 @@
         <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>86</v>
-      </c>
+      <c r="B16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>184</v>
@@ -3049,108 +3097,111 @@
       <c r="L16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>188</v>
       </c>
+      <c r="AN16" t="s" s="2">
+        <v>189</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>191</v>
@@ -3165,105 +3216,108 @@
         <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>196</v>
       </c>
+      <c r="AN17" t="s" s="2">
+        <v>197</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>199</v>
@@ -3271,222 +3325,228 @@
       <c r="L18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>201</v>
       </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="s" s="2">
         <v>207</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>211</v>
@@ -3498,29 +3558,29 @@
         <v>213</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>215</v>
@@ -3529,74 +3589,77 @@
         <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>219</v>
@@ -3604,110 +3667,113 @@
       <c r="L21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>221</v>
       </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>226</v>
@@ -3722,105 +3788,108 @@
         <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>233</v>
@@ -3835,107 +3904,110 @@
         <v>236</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>241</v>
@@ -3943,111 +4015,114 @@
       <c r="L24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>246</v>
@@ -4055,107 +4130,110 @@
       <c r="M25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>181</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>254</v>
@@ -4163,108 +4241,111 @@
       <c r="L26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>260</v>
@@ -4272,108 +4353,111 @@
       <c r="L27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>266</v>
@@ -4381,768 +4465,789 @@
       <c r="L28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M32" s="2"/>
+      <c r="M32" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="Y32" t="s" s="2">
         <v>286</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>86</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>291</v>
+        <v>178</v>
       </c>
       <c r="Y33" t="s" s="2">
         <v>292</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>299</v>
@@ -5150,191 +5255,197 @@
       <c r="L35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>301</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Information about patient's relatives, relevant for patient. 患者の家族に関する情報のうち、患者に関連する情報（家族歴）</t>
@@ -1498,13 +1502,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1570,13 +1574,13 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -1584,10 +1588,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1598,7 +1602,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -1607,19 +1611,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1669,13 +1673,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -1698,10 +1702,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1712,7 +1716,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -1721,16 +1725,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1781,19 +1785,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -1810,10 +1814,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1824,28 +1828,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1895,19 +1899,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -1924,10 +1928,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1938,7 +1942,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -1950,16 +1954,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1985,13 +1989,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2009,19 +2013,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2038,21 +2042,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2064,16 +2068,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2123,19 +2127,19 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2144,7 +2148,7 @@
         <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>78</v>
@@ -2152,14 +2156,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2178,16 +2182,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2237,7 +2241,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2258,7 +2262,7 @@
         <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>78</v>
@@ -2266,14 +2270,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2292,16 +2296,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2351,7 +2355,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2363,7 +2367,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2372,7 +2376,7 @@
         <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>78</v>
@@ -2380,14 +2384,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2400,25 +2404,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -2467,7 +2471,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2479,7 +2483,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2488,7 +2492,7 @@
         <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>78</v>
@@ -2496,10 +2500,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2519,22 +2523,22 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -2583,7 +2587,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2595,27 +2599,27 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2635,16 +2639,16 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2695,7 +2699,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2707,16 +2711,16 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -2724,10 +2728,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2747,19 +2751,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2809,7 +2813,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2821,16 +2825,16 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -2838,10 +2842,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2849,31 +2853,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2899,13 +2903,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -2923,22 +2927,22 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
@@ -2947,15 +2951,15 @@
         <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2966,7 +2970,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -2975,20 +2979,20 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3013,13 +3017,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3037,19 +3041,19 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3058,7 +3062,7 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3066,21 +3070,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3089,16 +3093,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3149,39 +3153,39 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3192,7 +3196,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3201,22 +3205,22 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3265,19 +3269,19 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -3286,18 +3290,18 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3308,7 +3312,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3317,20 +3321,20 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3379,19 +3383,19 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -3400,7 +3404,7 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -3408,10 +3412,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3419,10 +3423,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3431,16 +3435,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3467,13 +3471,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3491,19 +3495,19 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -3512,7 +3516,7 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3520,10 +3524,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3534,7 +3538,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3543,22 +3547,22 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3583,13 +3587,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3607,19 +3611,19 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -3636,10 +3640,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3650,7 +3654,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3662,17 +3666,17 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3721,19 +3725,19 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -3742,7 +3746,7 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -3750,10 +3754,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3764,7 +3768,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3773,22 +3777,22 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3837,19 +3841,19 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -3858,7 +3862,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -3866,10 +3870,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3880,7 +3884,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -3889,85 +3893,85 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AI23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -3984,10 +3988,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3998,7 +4002,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4007,16 +4011,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4067,19 +4071,19 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4088,7 +4092,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4096,10 +4100,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4119,19 +4123,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4157,13 +4161,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4181,7 +4185,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4193,27 +4197,27 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4233,16 +4237,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4293,7 +4297,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4305,27 +4309,27 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4348,13 +4352,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4405,7 +4409,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4417,16 +4421,16 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4434,10 +4438,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4460,13 +4464,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4517,7 +4521,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4529,7 +4533,7 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4538,7 +4542,7 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -4546,10 +4550,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4560,7 +4564,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -4572,13 +4576,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4629,13 +4633,13 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
@@ -4650,7 +4654,7 @@
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4658,14 +4662,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4684,16 +4688,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4743,7 +4747,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4755,7 +4759,7 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -4764,7 +4768,7 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -4772,14 +4776,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4792,25 +4796,25 @@
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4859,7 +4863,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4871,7 +4875,7 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -4880,7 +4884,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -4888,10 +4892,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4899,10 +4903,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4914,13 +4918,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4947,13 +4951,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -4971,19 +4975,19 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -4992,7 +4996,7 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5000,10 +5004,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5014,7 +5018,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5026,13 +5030,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5059,13 +5063,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5083,19 +5087,19 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5104,7 +5108,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5112,10 +5116,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5126,7 +5130,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5138,13 +5142,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5195,19 +5199,19 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5224,10 +5228,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5238,7 +5242,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5250,17 +5254,17 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5309,19 +5313,19 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5330,7 +5334,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5338,10 +5342,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5364,13 +5368,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5421,7 +5425,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5433,7 +5437,7 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5442,7 +5446,7 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Information about patient's relatives, relevant for patient. 患者の家族に関する情報のうち、患者に関連する情報（家族歴）</t>
@@ -1502,13 +1498,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1574,13 +1570,13 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -1588,10 +1584,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1602,28 +1598,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1673,13 +1669,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -1702,10 +1698,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1716,25 +1712,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1785,19 +1781,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -1814,10 +1810,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1828,28 +1824,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1899,19 +1895,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -1928,10 +1924,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1942,7 +1938,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -1954,16 +1950,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1989,43 +1985,43 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2042,21 +2038,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2068,16 +2064,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2127,28 +2123,28 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>78</v>
@@ -2156,14 +2152,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2182,16 +2178,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2241,7 +2237,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2262,7 +2258,7 @@
         <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>78</v>
@@ -2270,14 +2266,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2296,16 +2292,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2355,7 +2351,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2367,7 +2363,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2376,7 +2372,7 @@
         <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>78</v>
@@ -2384,14 +2380,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2404,25 +2400,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -2471,7 +2467,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2483,7 +2479,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2492,7 +2488,7 @@
         <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>78</v>
@@ -2500,10 +2496,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2523,22 +2519,22 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -2587,7 +2583,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2599,27 +2595,27 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2639,16 +2635,16 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2699,7 +2695,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2711,16 +2707,16 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -2728,10 +2724,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2751,19 +2747,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2813,7 +2809,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2825,16 +2821,16 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -2842,10 +2838,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2853,31 +2849,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2903,63 +2899,63 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2970,29 +2966,29 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3017,52 +3013,52 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3070,39 +3066,39 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3153,39 +3149,39 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3196,31 +3192,31 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3269,19 +3265,19 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -3290,18 +3286,18 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3312,29 +3308,29 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3383,19 +3379,19 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -3404,7 +3400,7 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -3412,10 +3408,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3423,28 +3419,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3471,52 +3467,52 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3524,10 +3520,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3538,31 +3534,31 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3587,14 +3583,14 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3611,19 +3607,19 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -3640,10 +3636,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3654,7 +3650,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3666,17 +3662,17 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3725,28 +3721,28 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -3754,10 +3750,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3768,31 +3764,31 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3841,19 +3837,19 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -3862,7 +3858,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -3870,10 +3866,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3884,94 +3880,94 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="O23" t="s" s="2">
+      <c r="P23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="P23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q23" t="s" s="2">
+      <c r="R23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -3988,10 +3984,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4002,25 +3998,25 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4071,19 +4067,19 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4092,7 +4088,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4100,10 +4096,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4123,19 +4119,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4161,14 +4157,14 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4185,7 +4181,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4197,27 +4193,27 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4237,16 +4233,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4297,7 +4293,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4309,27 +4305,27 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4352,13 +4348,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4409,7 +4405,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4421,16 +4417,16 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4438,10 +4434,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4464,13 +4460,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4521,7 +4517,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4533,7 +4529,7 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4542,7 +4538,7 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -4550,10 +4546,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4564,7 +4560,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -4576,13 +4572,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4633,28 +4629,28 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4662,14 +4658,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4688,16 +4684,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4747,7 +4743,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4759,7 +4755,7 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -4768,7 +4764,7 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -4776,14 +4772,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4796,25 +4792,25 @@
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="N31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4863,7 +4859,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4875,7 +4871,7 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -4884,7 +4880,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -4892,10 +4888,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4903,10 +4899,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4918,13 +4914,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4951,52 +4947,52 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5004,10 +5000,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5018,7 +5014,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5030,13 +5026,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5063,52 +5059,52 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Z33" t="s" s="2">
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5116,10 +5112,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5130,7 +5126,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5142,13 +5138,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5199,19 +5195,19 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5228,10 +5224,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5242,7 +5238,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5254,17 +5250,17 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5313,19 +5309,19 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5334,7 +5330,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5342,10 +5338,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5368,13 +5364,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5425,7 +5421,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5437,7 +5433,7 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5446,7 +5442,7 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -291,13 +291,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -310,16 +310,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -330,13 +330,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -349,19 +349,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -384,10 +384,10 @@
     <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -407,13 +407,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -433,33 +433,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>FamilyMemberHistory.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -472,16 +473,16 @@
 </t>
   </si>
   <si>
-    <t>External Id(s) for this record</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this family member history by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the family member history as it is known by various participating systems and in a way that remains consistent across servers.</t>
+    <t>このレコードの外部ID / External Id(s) for this record</t>
+  </si>
+  <si>
+    <t>リソースが更新され、サーバーからサーバーに伝播するにつれて一定のままであるパフォーマーまたはその他のシステムによってこの家族の歴史に割り当てられたビジネス識別子。 / Business identifiers assigned to this family member history by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>これはビジネス識別子であり、リソース識別子ではありません（[ディスカッション]（Resource.html＃識別子を参照））。識別子が単一のリソースインスタンスにのみ表示することがベストプラクティスですが、ビジネス慣行は、同じ識別子を持つ複数のリソースインスタンスが存在する可能性があることを時々決定する場合があります。たとえば、複数の患者と個人のリソースインスタンスは、同じ社会保険番号を共有する場合があります。 / This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>さまざまな参加システムで知られており、サーバー全体で一貫性を保っている方法で、家族の歴史を特定できます。 / Allows identification of the family member history as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -500,10 +501,10 @@
 </t>
   </si>
   <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.</t>
+    <t>FHIRプロトコルまたは定義をインスタンス化します / Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>FHIR定義のプロトコル、ガイドライン、オーダーセット、またはこの家族の歴史が一部または部分的に順守されているその他の定義を指しているURL。 / The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.</t>
   </si>
   <si>
     <t>Event.instantiatesCanonical</t>
@@ -515,13 +516,13 @@
     <t>FamilyMemberHistory.instantiatesUri</t>
   </si>
   <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+    <t>外部プロトコルまたは定義をインスタンス化します / Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>URLは、外部からメンテナンスされたプロトコル、ガイドライン、オーダーセット、またはこのファミリーメンバー史によって全体または一部が順守されているその他の定義を指しています。 / The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this FamilyMemberHistory.</t>
+  </si>
+  <si>
+    <t>これは、HTMLページ、PDFなどである可能性があるか、単に解決できないURI識別子である可能性があります。 / This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
   </si>
   <si>
     <t>Event.instantiatesUri</t>
@@ -537,13 +538,13 @@
 家族歴の記録のステータス。記録が部分的なものか完全なものかなど。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>A code that identifies the status of the family history record.</t>
+    <t>家族歴史記録のステータスを識別するコード。 / A code that identifies the status of the family history record.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/history-status|4.0.1</t>
@@ -572,13 +573,13 @@
 4)deferred:患者は今は知らないが、後日共有するつもりである</t>
   </si>
   <si>
-    <t>This is a separate element to allow it to have a distinct binding from reasonCode.</t>
+    <t>これは、ReasonCodeから明確なバインディングを可能にするための別の要素です。 / This is a separate element to allow it to have a distinct binding from reasonCode.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>Codes describing the reason why a family member's history is not available.</t>
+    <t>家族の歴史が利用できない理由を説明するコード。 / Codes describing the reason why a family member's history is not available.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/history-absent-reason</t>
@@ -628,10 +629,10 @@
 この家族歴の最終更新日。</t>
   </si>
   <si>
-    <t>This should be captured even if the same as the date on the List aggregating the full family history.</t>
-  </si>
-  <si>
-    <t>Allows determination of how current the summary is.</t>
+    <t>これは、完全な家族歴を集約するリストの日付と同じであってもキャプチャする必要があります。 / This should be captured even if the same as the date on the List aggregating the full family history.</t>
+  </si>
+  <si>
+    <t>概要がどのように電流であるかを判断できます。 / Allows determination of how current the summary is.</t>
   </si>
   <si>
     <t>participation[typeCode=AUT].time</t>
@@ -654,7 +655,7 @@
 対象の家族の呼び名。例えば「スーザンおばさん」「赤毛のいとこ」。</t>
   </si>
   <si>
-    <t>Allows greater ease in ensuring the same person is being talked about.</t>
+    <t>同じ人が話されていることを確実にするために、より容易になります。 / Allows greater ease in ensuring the same person is being talked about.</t>
   </si>
   <si>
     <t>name</t>
@@ -670,7 +671,7 @@
 この家族が患者とどのような関係か（父、母、兄弟など）</t>
   </si>
   <si>
-    <t>The nature of the relationship between the patient and the related person being described in the family member history.</t>
+    <t>患者と関連者との関係の性質は、家族の歴史に記載されています。 / The nature of the relationship between the patient and the related person being described in the family member history.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-FamilyMember</t>
@@ -689,10 +690,10 @@
 この家族の出生時の性別。</t>
   </si>
   <si>
-    <t>This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
-  </si>
-  <si>
-    <t>Not all relationship codes imply sex and the relative's sex can be relevant for risk assessments.</t>
+    <t>この要素は、個人が遺伝的に男性か女性かを理想的に反映する必要があります。ただし、患者の知識または友人/親relativeの報告に基づいた報告された情報は、報告された性別が完全に正確ではない状況があるかもしれません。例えば。「スーおばさん」はxxではなくxyかもしれません。この情報を求める質問は、知られている場合の遺伝的性別の捕獲を促進するために表現されるべきです。ただし、分析を実行するシステムは、この要素との不正確さの可能性も可能にする必要があります。 / This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
+  </si>
+  <si>
+    <t>すべての関係コードが性別を意味するわけではなく、親relativeの性別がリスク評価に関連する可能性があります。 / Not all relationship codes imply sex and the relative's sex can be relevant for risk assessments.</t>
   </si>
   <si>
     <t>extensible</t>
@@ -719,7 +720,7 @@
 家族の実際もしくはおおよその生年月日。</t>
   </si>
   <si>
-    <t>Allows calculation of the relative's age.</t>
+    <t>親relativeの年齢の計算を可能にします。 / Allows calculation of the relative's age.</t>
   </si>
   <si>
     <t xml:space="preserve">fhs-1
@@ -743,7 +744,7 @@
 家族歴が記録された時点でのこの家族の年齢。</t>
   </si>
   <si>
-    <t>use estimatedAge to indicate whether the age is actual or not.</t>
+    <t>推定値を使用して、年齢が実際のかどうかを示します。 / use estimatedAge to indicate whether the age is actual or not.</t>
   </si>
   <si>
     <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians.
@@ -767,13 +768,13 @@
 Trueである場合この年齢は推定値である。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
-  </si>
-  <si>
-    <t>Clinicians often prefer to specify an estimaged age rather than an age range.</t>
-  </si>
-  <si>
-    <t>It is unknown whether the age is an estimate or not</t>
+    <t>この要素は、年齢が推定されるという事実が、指定された年齢に基づいて計算するアルゴリズムの結果を変更できる/変更できるため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
+  </si>
+  <si>
+    <t>臨床医は、多くの場合、年齢範囲ではなく推定年齢を指定することを好みます。 / Clinicians often prefer to specify an estimaged age rather than an age range.</t>
+  </si>
+  <si>
+    <t>年齢が推定であるかどうかは不明です / It is unknown whether the age is an estimate or not</t>
   </si>
   <si>
     <t xml:space="preserve">fhs-2
@@ -807,10 +808,10 @@
 家族歴を聴取する契機となった患者の疾患をコードもしくはテキストで記述（CodeableConcept)</t>
   </si>
   <si>
-    <t>Textual reasons can be captured using reasonCode.text.</t>
-  </si>
-  <si>
-    <t>Codes indicating why the family member history was done.</t>
+    <t>テキストの理由は、ReasonCode.textを使用してキャプチャできます。 / Textual reasons can be captured using reasonCode.text.</t>
+  </si>
+  <si>
+    <t>家族の歴史が行われた理由を示すコード。 / Codes indicating why the family member history was done.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -882,10 +883,10 @@
     <t>FamilyMemberHistory.condition.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -897,7 +898,7 @@
     <t>FamilyMemberHistory.condition.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -910,10 +911,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -930,7 +932,7 @@
 この疾患について知られている程度や作成システムの能力に応じて、コード化された状態（MIや糖尿病など）、または「がん」のようなあまり特定されない文字列になる可能性がある。</t>
   </si>
   <si>
-    <t>Identification of the Condition or diagnosis.</t>
+    <t>状態または診断の識別。 / Identification of the Condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -949,7 +951,7 @@
 その状態の後に何が起こったかを示す。その結果、死亡した場合は、死亡した日付が関連に記録される。</t>
   </si>
   <si>
-    <t>The result of the condition for the patient; e.g. death, permanent disability, temporary disability, etc.</t>
+    <t>患者の状態の結果。例えば死、永久障害、一時的な障害など。 / The result of the condition for the patient; e.g. death, permanent disability, temporary disability, etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-outcome</t>
@@ -982,7 +984,7 @@
 発症年齢、おおよその年齢範囲、記述文字列のいずれかを記録する。複数回発生する疾患については、最初に知られている発生を記述する。</t>
   </si>
   <si>
-    <t>Age of onset of a condition in relatives is predictive of risk for the patient.</t>
+    <t>親relativeの状態の発症年齢は、患者のリスクを予測します。 / Age of onset of a condition in relatives is predictive of risk for the patient.</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="Subject Age at measurement", value&lt;Diagnosis].value[@xsi:typeCode='TS' or 'IVL_TS']  Use originalText for string</t>
@@ -1335,7 +1337,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="112.3828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="147.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.70703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -127,126 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1119,10 +999,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1304,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1315,13 +1195,11 @@
   <cols>
     <col min="1" max="1" width="49.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1332,4126 +1210,4005 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="147.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.70703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="49.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="188.0234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AN1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -999,10 +1119,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1184,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1195,11 +1315,13 @@
   <cols>
     <col min="1" max="1" width="49.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1210,4005 +1332,4126 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="147.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.70703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="49.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.6640625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="18.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="188.0234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>38</v>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O17" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>38</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>38</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>38</v>
+      <c r="AN36" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="269">
   <si>
     <t>Property</t>
   </si>
@@ -147,6 +147,10 @@
   <si>
     <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
 患者の診療に関連する、患者家族の疾患に関する情報。</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}fhs-1:年齢[x]または生まれ[x]を持つことができますが、両方ではありません / Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:年齢[x]が存在する場合にのみ推定される可能性があります / Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1330,16 +1334,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1347,10 +1351,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1361,7 +1365,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1370,19 +1374,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1432,13 +1436,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1461,10 +1465,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1475,7 +1479,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1484,16 +1488,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1544,19 +1548,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1573,10 +1577,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1587,28 +1591,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1658,19 +1662,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1687,10 +1691,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1701,7 +1705,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1713,16 +1717,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1748,13 +1752,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -1772,19 +1776,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1801,21 +1805,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1827,16 +1831,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1886,19 +1890,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -1907,7 +1911,7 @@
         <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>38</v>
@@ -1915,14 +1919,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1941,16 +1945,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2000,7 +2004,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2021,7 +2025,7 @@
         <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>38</v>
@@ -2029,14 +2033,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2055,16 +2059,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2114,7 +2118,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2126,7 +2130,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2135,7 +2139,7 @@
         <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>38</v>
@@ -2143,14 +2147,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2163,25 +2167,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2230,7 +2234,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2242,7 +2246,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2251,7 +2255,7 @@
         <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>38</v>
@@ -2259,10 +2263,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2282,22 +2286,22 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2346,7 +2350,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2358,27 +2362,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2398,16 +2402,16 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2458,7 +2462,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2470,16 +2474,16 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>38</v>
@@ -2487,10 +2491,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2510,19 +2514,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2572,7 +2576,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -2584,16 +2588,16 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>38</v>
@@ -2601,10 +2605,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2612,31 +2616,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2662,13 +2666,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -2686,22 +2690,22 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -2710,15 +2714,15 @@
         <v>38</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2729,7 +2733,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2738,20 +2742,20 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -2776,13 +2780,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -2800,19 +2804,19 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2821,7 +2825,7 @@
         <v>38</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -2829,21 +2833,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2852,16 +2856,16 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2912,39 +2916,39 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2955,7 +2959,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -2964,22 +2968,22 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3028,19 +3032,19 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3049,18 +3053,18 @@
         <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3071,7 +3075,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3080,20 +3084,20 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3142,19 +3146,19 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3163,7 +3167,7 @@
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3171,10 +3175,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3182,10 +3186,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3194,16 +3198,16 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3230,13 +3234,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -3254,19 +3258,19 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -3275,7 +3279,7 @@
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3283,10 +3287,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3297,7 +3301,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3306,22 +3310,22 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3346,13 +3350,13 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -3370,19 +3374,19 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -3399,10 +3403,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3413,7 +3417,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3425,17 +3429,17 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -3484,19 +3488,19 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -3505,7 +3509,7 @@
         <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -3513,10 +3517,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3527,7 +3531,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3536,22 +3540,22 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -3600,19 +3604,19 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -3621,7 +3625,7 @@
         <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -3629,10 +3633,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3643,7 +3647,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3652,85 +3656,85 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="AI22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3747,10 +3751,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3761,7 +3765,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3770,16 +3774,16 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3830,19 +3834,19 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3851,7 +3855,7 @@
         <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>38</v>
@@ -3859,10 +3863,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3882,19 +3886,19 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3920,13 +3924,13 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
@@ -3944,7 +3948,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -3956,27 +3960,27 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3996,16 +4000,16 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4056,7 +4060,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4068,27 +4072,27 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4111,13 +4115,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4168,7 +4172,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4180,16 +4184,16 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>38</v>
@@ -4197,10 +4201,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4223,13 +4227,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4280,7 +4284,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4292,7 +4296,7 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -4301,7 +4305,7 @@
         <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -4309,10 +4313,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4323,7 +4327,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4335,13 +4339,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4392,13 +4396,13 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
@@ -4413,7 +4417,7 @@
         <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -4421,14 +4425,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4447,16 +4451,16 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4506,7 +4510,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4518,7 +4522,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -4527,7 +4531,7 @@
         <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -4535,14 +4539,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4555,25 +4559,25 @@
         <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -4622,7 +4626,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4634,7 +4638,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -4643,7 +4647,7 @@
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -4651,10 +4655,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4662,10 +4666,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -4677,13 +4681,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4710,13 +4714,13 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -4734,19 +4738,19 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -4755,7 +4759,7 @@
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -4763,10 +4767,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4777,7 +4781,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -4789,13 +4793,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4822,13 +4826,13 @@
         <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>38</v>
@@ -4846,19 +4850,19 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4867,7 +4871,7 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -4875,10 +4879,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4889,7 +4893,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -4901,13 +4905,13 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4958,19 +4962,19 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -4987,10 +4991,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5001,7 +5005,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5013,17 +5017,17 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5072,19 +5076,19 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -5093,7 +5097,7 @@
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5101,10 +5105,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5127,13 +5131,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5184,7 +5188,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5196,7 +5200,7 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
@@ -5205,7 +5209,7 @@
         <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -265,7 +265,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
   </si>
   <si>
     <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -415,11 +415,10 @@
     <t>FamilyMemberHistory.status</t>
   </si>
   <si>
-    <t>partial | completed | entered-in-error | health-unknown この家族歴の記録ステータス（部分的 | 完全 | 記録エラー | 健康状態不明）</t>
-  </si>
-  <si>
-    <t>A code specifying the status of the record of the family history of a specific family member.
-家族歴の記録のステータス。記録が部分的なものか完全なものかなど。</t>
+    <t>部分的|完了|エラーに入った|健康と知られていない / partial | completed | entered-in-error | health-unknown</t>
+  </si>
+  <si>
+    <t>特定の家族の家族歴史の記録のステータスを指定するコード。 / A code specifying the status of the record of the family history of a specific family member.</t>
   </si>
   <si>
     <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -447,14 +446,10 @@
 </t>
   </si>
   <si>
-    <t>subject-unknown | withheld | unable-to-obtain | deferred この家族歴が記録されない理由(対象家族を知らない | 情報の提供を拒否 | 聞き出すことができない | 後日情報を提供できる)</t>
-  </si>
-  <si>
-    <t>Describes why the family member's history is not available.
-1)subject-unknown:患者が対象の家族のことを知らない（例:患者は養子のため実親を知らない）
-2)withheld:患者が家族歴の共有を拒否
-3)unable-to-obtain:患者から聞き取れない（例：患者が意識不明）
-4)deferred:患者は今は知らないが、後日共有するつもりである</t>
+    <t>サブジェクト未知の|差し控え|観察できない|延期 / subject-unknown | withheld | unable-to-obtain | deferred</t>
+  </si>
+  <si>
+    <t>家族の歴史が利用できない理由を説明しています。 / Describes why the family member's history is not available.</t>
   </si>
   <si>
     <t>これは、ReasonCodeから明確なバインディングを可能にするための別の要素です。 / This is a separate element to allow it to have a distinct binding from reasonCode.</t>
@@ -483,11 +478,10 @@
 </t>
   </si>
   <si>
-    <t>Patient history is about. この家族歴を有する患者</t>
-  </si>
-  <si>
-    <t>The person who this history concerns.
-この家族歴を有する患者。</t>
+    <t>患者の歴史はについてです / Patient history is about</t>
+  </si>
+  <si>
+    <t>この歴史が関係する人。 / The person who this history concerns.</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -506,11 +500,10 @@
 </t>
   </si>
   <si>
-    <t>When history was recorded or last updated. この家族歴の最終更新日</t>
-  </si>
-  <si>
-    <t>The date (and possibly time) when the family member history was recorded or last updated.
-この家族歴の最終更新日。</t>
+    <t>履歴が記録されたとき、または最後に更新されたとき / When history was recorded or last updated</t>
+  </si>
+  <si>
+    <t>家族の歴史が記録または最後に更新された日付（および時刻）。 / The date (and possibly time) when the family member history was recorded or last updated.</t>
   </si>
   <si>
     <t>これは、完全な家族歴を集約するリストの日付と同じであってもキャプチャする必要があります。 / This should be captured even if the same as the date on the List aggregating the full family history.</t>
@@ -532,11 +525,10 @@
 </t>
   </si>
   <si>
-    <t>The family member described. この家族の名前</t>
-  </si>
-  <si>
-    <t>This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair".
-対象の家族の呼び名。例えば「スーザンおばさん」「赤毛のいとこ」。</t>
+    <t>家族が説明した / The family member described</t>
+  </si>
+  <si>
+    <t>これは名前または説明のいずれかです。例えば「スーザンおばさん」、「赤い髪のいとこ」。 / This will either be a name or a description; e.g. "Aunt Susan", "my cousin with the red hair".</t>
   </si>
   <si>
     <t>同じ人が話されていることを確実にするために、より容易になります。 / Allows greater ease in ensuring the same person is being talked about.</t>
@@ -548,11 +540,10 @@
     <t>FamilyMemberHistory.relationship</t>
   </si>
   <si>
-    <t>Relationship to the subject. この家族の患者との関係（父、母、兄弟など）</t>
-  </si>
-  <si>
-    <t>The type of relationship this person has to the patient (father, mother, brother etc.). 
-この家族が患者とどのような関係か（父、母、兄弟など）</t>
+    <t>主題との関係 / Relationship to the subject</t>
+  </si>
+  <si>
+    <t>この人が患者（父、母、兄弟など）との関係のタイプ。 / The type of relationship this person has to the patient (father, mother, brother etc.).</t>
   </si>
   <si>
     <t>患者と関連者との関係の性質は、家族の歴史に記載されています。 / The nature of the relationship between the patient and the related person being described in the family member history.</t>
@@ -567,11 +558,10 @@
     <t>FamilyMemberHistory.sex</t>
   </si>
   <si>
-    <t>male | female | other | unknown 性別（男性 | 女性 | その他 | 不明）</t>
-  </si>
-  <si>
-    <t>The birth sex of the family member.
-この家族の出生時の性別。</t>
+    <t>男性|女性|その他|わからない / male | female | other | unknown</t>
+  </si>
+  <si>
+    <t>家族の出生セックス。 / The birth sex of the family member.</t>
   </si>
   <si>
     <t>この要素は、個人が遺伝的に男性か女性かを理想的に反映する必要があります。ただし、患者の知識または友人/親relativeの報告に基づいた報告された情報は、報告された性別が完全に正確ではない状況があるかもしれません。例えば。「スーおばさん」はxxではなくxyかもしれません。この情報を求める質問は、知られている場合の遺伝的性別の捕獲を促進するために表現されるべきです。ただし、分析を実行するシステムは、この要素との不正確さの可能性も可能にする必要があります。 / This element should ideally reflect whether the individual is genetically male or female.  However, as reported information based on the knowledge of the patient or reporting friend/relative, there may be situations where the reported sex might not be totally accurate.  E.g. 'Aunt Sue' might be XY rather than XX.  Questions soliciting this information should be phrased to encourage capture of genetic sex where known.  However, systems performing analysis should also allow for the possibility of imprecision with this element.</t>
@@ -583,8 +573,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Codes describing the sex assigned at birth as documented on the birth registration.
-出生届に記載される出生時に割り当てられた性別。</t>
+    <t>出生登録に文書化された出生時に割り当てられた性別を説明するコード。 / Codes describing the sex assigned at birth as documented on the birth registration.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
@@ -597,11 +586,10 @@
 datestring</t>
   </si>
   <si>
-    <t>(approximate) date of birth. この家族のおよその生年月日</t>
-  </si>
-  <si>
-    <t>The actual or approximate date of birth of the relative.
-家族の実際もしくはおおよその生年月日。</t>
+    <t>（おおよそ）生年月日 / (approximate) date of birth</t>
+  </si>
+  <si>
+    <t>親relativeの実際のまたは近似日。 / The actual or approximate date of birth of the relative.</t>
   </si>
   <si>
     <t>親relativeの年齢の計算を可能にします。 / Allows calculation of the relative's age.</t>
@@ -621,18 +609,16 @@
 Rangestring</t>
   </si>
   <si>
-    <t>(approximate) age. この家族のおよその年齢</t>
-  </si>
-  <si>
-    <t>The age of the relative at the time the family member history is recorded.
-家族歴が記録された時点でのこの家族の年齢。</t>
+    <t>（おおよそ）年齢 / (approximate) age</t>
+  </si>
+  <si>
+    <t>家族の歴史が記録された時点での親relativeの年齢。 / The age of the relative at the time the family member history is recorded.</t>
   </si>
   <si>
     <t>推定値を使用して、年齢が実際のかどうかを示します。 / use estimatedAge to indicate whether the age is actual or not.</t>
   </si>
   <si>
-    <t>While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians.
-年齢は生年月日から計算できるが、臨床医にとっては年齢を直接記録する方が自然な場合もある。</t>
+    <t>年齢は生年月日から計算できますが、時々直接記録することは臨床医にとってより自然です。 / While age can be calculated from date of birth, sometimes recording age directly is more natural for clinicians.</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ].act[classCode=OBS,moodCode=EVN, code="age"].value</t>
@@ -645,11 +631,10 @@
 </t>
   </si>
   <si>
-    <t>Age is estimated? この家族の年齢は推定か？</t>
-  </si>
-  <si>
-    <t>If true, indicates that the age value specified is an estimated value.
-Trueである場合この年齢は推定値である。</t>
+    <t>年齢は推定されていますか？ / Age is estimated?</t>
+  </si>
+  <si>
+    <t>真である場合、指定された年齢値が推定値であることを示します。 / If true, indicates that the age value specified is an estimated value.</t>
   </si>
   <si>
     <t>この要素は、年齢が推定されるという事実が、指定された年齢に基づいて計算するアルゴリズムの結果を変更できる/変更できるため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the fact that age is estimated can/should change the results of any algorithm that calculates based on the specified age.</t>
@@ -672,11 +657,10 @@
 AgeRangedatestring</t>
   </si>
   <si>
-    <t>Dead? How old/when? この家族は亡くなっているか、そうであれば何歳もしくはいつ亡くなったか</t>
-  </si>
-  <si>
-    <t>Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record.
-死亡したかどうかのフラグ/家族の死亡時の実年齢/おおよその年齢。</t>
+    <t>死？何歳/いつ？ / Dead? How old/when?</t>
+  </si>
+  <si>
+    <t>亡くなった旗または家族の歴史記録の死亡時の親relativeの実際のまたは近似年齢。 / Deceased flag or the actual or approximate age of the relative at the time of death for the family member history record.</t>
   </si>
   <si>
     <t>player[classCode=LIV, determinerCode=INSTANCE].deceasedInd, deceasedDate (could be URG)  For age, you'd hang an observation off the role</t>
@@ -685,11 +669,10 @@
     <t>FamilyMemberHistory.reasonCode</t>
   </si>
   <si>
-    <t>Why was family member history performed? なぜ家族歴が聴取されたか（契機となった患者の疾患）</t>
-  </si>
-  <si>
-    <t>Describes why the family member history occurred in coded or textual form.
-家族歴を聴取する契機となった患者の疾患をコードもしくはテキストで記述（CodeableConcept)</t>
+    <t>なぜ家族の歴史が演奏されたのですか？ / Why was family member history performed?</t>
+  </si>
+  <si>
+    <t>家族の歴史がコーディングされた形式またはテキスト形式で発生した理由について説明します。 / Describes why the family member history occurred in coded or textual form.</t>
   </si>
   <si>
     <t>テキストの理由は、ReasonCode.textを使用してキャプチャできます。 / Textual reasons can be captured using reasonCode.text.</t>
@@ -714,11 +697,7 @@
 </t>
   </si>
   <si>
-    <t>Why was family member history performed? なぜ家族歴が聴取されたか（契機となったFHIRリソース）</t>
-  </si>
-  <si>
-    <t>Indicates a JP_Condition, JP_Observation, JP_AllergyIntolerance, or JP_QuestionnaireResponse JP_Observation_Common, or JP_DiagnosticReport_Common that justifies this family member history event.
-この家族歴が聴取されたきっかけとなったFHIRリソースへの参照。</t>
+    <t>この家族の歴史イベントを正当化する条件、観察、アレルギーへの耐性、またはアンケートのサンキアが示すことを示します。 / Indicates a Condition, Observation, AllergyIntolerance, or QuestionnaireResponse that justifies this family member history event.</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -734,11 +713,10 @@
 </t>
   </si>
   <si>
-    <t>General note about related person. この家族に関するメモ</t>
-  </si>
-  <si>
-    <t>This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible.
-この家族に関するメモ。</t>
+    <t>関連者についての一般的なメモ / General note about related person</t>
+  </si>
+  <si>
+    <t>このプロパティは、関連者について作成されたものに条件固有のノートを許可します。理想的には、メモは条件プロパティにありますが、これは常に可能ではありません。 / This property allows a non condition-specific note to the made about the related person. Ideally, the note would be in the condition property, but this is not always possible.</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -754,11 +732,10 @@
 </t>
   </si>
   <si>
-    <t>Condition that the related person had. この家族が有する疾患</t>
-  </si>
-  <si>
-    <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition.
-この家族が持っていた疾患。</t>
+    <t>関連者が持っていた状態 / Condition that the related person had</t>
+  </si>
+  <si>
+    <t>家族が持っていた重要な条件（または状態）。これは、システムがリソースごとに複数の条件を表すことを可能にする繰り返しセクションですが、複数のリソースを停止するものは何もありません - 条件ごとに1つはありません。 / The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition.</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=ActCode#ASSERTION, value&lt;Diagnosis]</t>
@@ -809,11 +786,10 @@
     <t>FamilyMemberHistory.condition.code</t>
   </si>
   <si>
-    <t>Condition suffered by relation. この家族の疾患</t>
-  </si>
-  <si>
-    <t>The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.
-この疾患について知られている程度や作成システムの能力に応じて、コード化された状態（MIや糖尿病など）、または「がん」のようなあまり特定されない文字列になる可能性がある。</t>
+    <t>関係が被る状態 / Condition suffered by relation</t>
+  </si>
+  <si>
+    <t>指定された実際の条件。コード化された状態（MIや糖尿病など）または、作成システムの状態と能力についてわかっている量に応じて、「がん」のような特定の文字列である可能性があります。 / The actual condition specified. Could be a coded condition (like MI or Diabetes) or a less specific string like 'cancer' depending on how much is known about the condition and the capabilities of the creating system.</t>
   </si>
   <si>
     <t>状態または診断の識別。 / Identification of the Condition or diagnosis.</t>
@@ -828,11 +804,10 @@
     <t>FamilyMemberHistory.condition.outcome</t>
   </si>
   <si>
-    <t>deceased | permanent disability | etc. この疾患のアウトカム（死亡 | 後遺障害 | その他）</t>
-  </si>
-  <si>
-    <t>Indicates what happened following the condition. If the condition resulted in death, deceased date is captured on the relation.
-その状態の後に何が起こったかを示す。その結果、死亡した場合は、死亡した日付が関連に記録される。</t>
+    <t>故人|永久障害|等 / deceased | permanent disability | etc.</t>
+  </si>
+  <si>
+    <t>状態に従って何が起こったかを示します。条件が死亡した場合、亡くなった日付が関係で捕らえられます。 / Indicates what happened following the condition.  If the condition resulted in death, deceased date is captured on the relation.</t>
   </si>
   <si>
     <t>患者の状態の結果。例えば死、永久障害、一時的な障害など。 / The result of the condition for the patient; e.g. death, permanent disability, temporary disability, etc.</t>
@@ -847,11 +822,10 @@
     <t>FamilyMemberHistory.condition.contributedToDeath</t>
   </si>
   <si>
-    <t>Whether the condition contributed to the cause of death. この疾患が死亡の原因となったかどうか</t>
-  </si>
-  <si>
-    <t>This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.
-この疾患が家族の死亡に寄与したかどうかのフラグ。入力されていない場合は、不明である。</t>
+    <t>状態が死因に貢献したかどうか / Whether the condition contributed to the cause of death</t>
+  </si>
+  <si>
+    <t>この状態は、関連者の死因に貢献しました。貢献したtodeathが埋め込まれていない場合、それは不明です。 / This condition contributed to the cause of death of the related person. If contributedToDeath is not populated, then it is unknown.</t>
   </si>
   <si>
     <t>FamilyMemberHistory.condition.onset[x]</t>
@@ -861,11 +835,10 @@
 RangePeriodstring</t>
   </si>
   <si>
-    <t>When condition first manifested. この疾患のオンセット</t>
-  </si>
-  <si>
-    <t>Either the age of onset, range of approximate age or descriptive string can be recorded. For conditions with multiple occurrences, this describes the first known occurrence.
-発症年齢、おおよその年齢範囲、記述文字列のいずれかを記録する。複数回発生する疾患については、最初に知られている発生を記述する。</t>
+    <t>条件が最初に現れたとき / When condition first manifested</t>
+  </si>
+  <si>
+    <t>発症年齢、おおよその年齢の範囲、または記述文字列のいずれかを記録できます。複数の発生がある条件の場合、これは最初の既知の発生を説明します。 / Either the age of onset, range of approximate age or descriptive string can be recorded.  For conditions with multiple occurrences, this describes the first known occurrence.</t>
   </si>
   <si>
     <t>親relativeの状態の発症年齢は、患者のリスクを予測します。 / Age of onset of a condition in relatives is predictive of risk for the patient.</t>
@@ -877,11 +850,10 @@
     <t>FamilyMemberHistory.condition.note</t>
   </si>
   <si>
-    <t>Extra information about condition. この疾患についての追加の情報メモ</t>
-  </si>
-  <si>
-    <t>An area where general notes can be placed about this specific condition.
-この疾患についての一般的なメモ。</t>
+    <t>状態に関する追加情報 / Extra information about condition</t>
+  </si>
+  <si>
+    <t>この特定の条件について一般的なメモを配置できる領域。 / An area where general notes can be placed about this specific condition.</t>
   </si>
 </sst>
 </file>
@@ -4006,10 +3978,10 @@
         <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4075,13 +4047,13 @@
         <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>214</v>
@@ -4089,10 +4061,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4115,13 +4087,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4172,7 +4144,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4187,13 +4159,13 @@
         <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>38</v>
@@ -4201,10 +4173,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4227,13 +4199,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4284,7 +4256,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4305,7 +4277,7 @@
         <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -4313,10 +4285,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4342,10 +4314,10 @@
         <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4396,7 +4368,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4417,7 +4389,7 @@
         <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -4425,10 +4397,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4457,7 +4429,7 @@
         <v>96</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>98</v>
@@ -4510,7 +4482,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4531,7 +4503,7 @@
         <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -4539,14 +4511,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4568,10 +4540,10 @@
         <v>95</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>98</v>
@@ -4626,7 +4598,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4655,10 +4627,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4684,10 +4656,10 @@
         <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4717,11 +4689,11 @@
         <v>140</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
       </c>
@@ -4738,7 +4710,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>49</v>
@@ -4759,7 +4731,7 @@
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -4767,10 +4739,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4796,10 +4768,10 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4829,11 +4801,11 @@
         <v>140</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>38</v>
       </c>
@@ -4850,7 +4822,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -4871,7 +4843,7 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -4879,10 +4851,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4908,10 +4880,10 @@
         <v>195</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4962,7 +4934,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -4991,10 +4963,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5017,17 +4989,17 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5076,7 +5048,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5097,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5105,10 +5077,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5131,13 +5103,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5188,7 +5160,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5209,7 +5181,7 @@
         <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -145,7 +145,7 @@
     <t>Information about patient's relatives, relevant for patient. 患者の家族に関する情報のうち、患者に関連する情報（家族歴）</t>
   </si>
   <si>
-    <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.
+    <t>Significant health conditions for a person related to the patient relevant in the context of care for the patient.  
 患者の診療に関連する、患者家族の疾患に関する情報。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1160,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1171,11 +1291,13 @@
   <cols>
     <col min="1" max="1" width="49.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1186,601 +1308,608 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="147.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.70703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="49.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.6640625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="18.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="188.0234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>38</v>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1788,3403 +1917,3517 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O17" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>38</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>214</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>38</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>92</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>61</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>38</v>
+      <c r="AN36" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -127,126 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1280,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1291,13 +1171,11 @@
   <cols>
     <col min="1" max="1" width="49.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1308,608 +1186,601 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="147.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.70703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="49.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="188.0234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AN1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1917,3517 +1788,3403 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>254</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>92</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}fhs-1:年齢[x]または生まれ[x]を持つことができますが、両方ではありません / Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:年齢[x]が存在する場合にのみ推定される可能性があります / Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}fhs-1:年齢[x]または生まれ[x]を持つことができますが、両方ではありません / Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:年齢[x]が存在する場合にのみ推定される可能性があります / Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-familymemberhistory.xlsx
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}fhs-1:年齢[x]または生まれ[x]を持つことができますが、両方ではありません / Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:年齢[x]が存在する場合にのみ推定される可能性があります / Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}fhs-1:年齢[x]または生まれ[x]を持つことができますが、両方ではありません / Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:年齢[x]が存在する場合にのみ推定される可能性があります / Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
   </si>
   <si>
     <t>Event</t>
